--- a/journalData/sarah.xlsx
+++ b/journalData/sarah.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25160" yWindow="1080" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="197">
   <si>
     <t>Start Time</t>
   </si>
@@ -604,17 +604,24 @@
   </si>
   <si>
     <t>exercise (shorter than usual... tired)</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="h&quot;:&quot;mm&quot;:&quot;ss&quot; &quot;AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,6 +632,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -650,10 +673,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -661,13 +762,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -679,11 +774,108 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="79">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,22 +1205,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P128"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="10.83203125" style="11"/>
+    <col min="7" max="16" width="10.83203125" style="16"/>
+    <col min="17" max="17" width="21.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="30.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="73">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="73">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1040,45 +1239,53 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="25">
+      <c r="Q1" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="25">
       <c r="A2" s="5">
         <v>42482</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>0.57499999999999996</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="10">
+        <v>0.67500000000000004</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1088,27 +1295,37 @@
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="25">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="12">
+        <f>A2+B2</f>
+        <v>42482.574999999997</v>
+      </c>
+      <c r="R2" s="12">
+        <f>A2+C2</f>
+        <v>42482.675000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="25">
       <c r="A3" s="5">
         <v>42482</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>0.67500000000000004</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="10">
+        <v>0.71875</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1118,27 +1335,37 @@
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="145">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q66" si="0">A3+B3</f>
+        <v>42482.675000000003</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R66" si="1">A3+C3</f>
+        <v>42482.71875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="145">
       <c r="A4" s="5">
         <v>42482</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>0.71875</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="10">
+        <v>0.79513888888888884</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1148,27 +1375,37 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="25">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="12">
+        <f>A4+C3</f>
+        <v>42482.71875</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.795138888891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="25">
       <c r="A5" s="5">
         <v>42482</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>0.79513888888888884</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="10">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1178,27 +1415,37 @@
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="61">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="12">
+        <f t="shared" si="0"/>
+        <v>42482.795138888891</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.802083333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="61">
       <c r="A6" s="5">
         <v>42482</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="10">
+        <v>0.80902777777777779</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1208,27 +1455,37 @@
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="109">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="12">
+        <f>A6+C5</f>
+        <v>42482.802083333336</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.809027777781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="109">
       <c r="A7" s="5">
         <v>42482</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>0.80902777777777779</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="10">
+        <v>0.81944444444444442</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1238,27 +1495,37 @@
       <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="193">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="12">
+        <f>A7+C6</f>
+        <v>42482.809027777781</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.819444444445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="193">
       <c r="A8" s="5">
         <v>42482</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>0.81944444444444442</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="10">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1268,27 +1535,37 @@
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="37">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="12">
+        <f t="shared" si="0"/>
+        <v>42482.819444444445</v>
+      </c>
+      <c r="R8" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.854166666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="37">
       <c r="A9" s="5">
         <v>42482</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="10">
+        <v>0.875</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1298,27 +1575,37 @@
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="12">
+        <f>A9+C8</f>
+        <v>42482.854166666664</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5">
         <v>42482</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>0.875</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="10">
+        <v>0.90972222222222221</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1328,27 +1615,37 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="37">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="12">
+        <f>A10+C9</f>
+        <v>42482.875</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.909722222219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="37">
       <c r="A11" s="5">
         <v>42482</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="10">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1358,25 +1655,35 @@
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="25">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="12">
+        <f>A11+C10</f>
+        <v>42482.909722222219</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.958333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="25">
       <c r="A12" s="5">
         <v>42482</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="10">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1386,27 +1693,37 @@
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="97">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="12">
+        <f>A12+C11</f>
+        <v>42482.958333333336</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" si="1"/>
+        <v>42482.208333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="97">
       <c r="A13" s="5">
         <v>42483</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="10">
+        <v>0.34375</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1416,27 +1733,37 @@
       <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="37">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="12">
+        <f>A13+C12</f>
+        <v>42483.208333333336</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.34375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="37">
       <c r="A14" s="5">
         <v>42483</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10">
         <v>0.34375</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="10">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1446,27 +1773,37 @@
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="25">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="12">
+        <f>A14+C13</f>
+        <v>42483.34375</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.385416666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="25">
       <c r="A15" s="5">
         <v>42483</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1476,27 +1813,37 @@
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="73">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="12">
+        <f>A15+C14</f>
+        <v>42483.385416666664</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="73">
       <c r="A16" s="5">
         <v>42483</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>0.5</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="10">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1506,27 +1853,37 @@
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="37">
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.5</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.614583333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="37">
       <c r="A17" s="5">
         <v>42483</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="10">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1536,31 +1893,41 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15">
         <v>9</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="15">
         <v>7</v>
       </c>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="25">
+      <c r="P17" s="15"/>
+      <c r="Q17" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.614583333336</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="25">
       <c r="A18" s="5">
         <v>42483</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="10">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1570,29 +1937,39 @@
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15">
         <v>6</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="61">
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.666666666664</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.770833333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="61">
       <c r="A19" s="5">
         <v>42483</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="10">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="10">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1602,29 +1979,39 @@
       <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
         <v>4</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" ht="37">
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.770833333336</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.802083333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="37">
       <c r="A20" s="5">
         <v>42483</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="10">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="10">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
@@ -1634,29 +2021,39 @@
       <c r="F20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
         <v>5</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="61">
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.802083333336</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.822916666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="61">
       <c r="A21" s="5">
         <v>42483</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="10">
         <v>0.82291666666666663</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="10">
+        <v>0.86458333333333337</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1666,29 +2063,39 @@
       <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15">
         <v>4</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="37">
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.822916666664</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.864583333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="37">
       <c r="A22" s="5">
         <v>42483</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="10">
         <v>0.86458333333333337</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="10">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1698,25 +2105,35 @@
       <c r="F22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" ht="25">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.864583333336</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="1"/>
+        <v>42483.958333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="25">
       <c r="A23" s="5">
         <v>42483</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
@@ -1726,29 +2143,39 @@
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15">
         <v>7</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" ht="37">
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="12">
+        <f t="shared" si="0"/>
+        <v>42483.958333333336</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" si="1"/>
+        <v>42483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="37">
       <c r="A24" s="5">
         <v>42484</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="10">
         <v>0</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="10">
+        <v>0.46875</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>66</v>
       </c>
@@ -1758,29 +2185,39 @@
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15">
         <v>10</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" ht="49">
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="12">
+        <f t="shared" si="0"/>
+        <v>42484</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.46875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="49">
       <c r="A25" s="5">
         <v>42484</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="10">
         <v>0.46875</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="10">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>67</v>
       </c>
@@ -1790,27 +2227,37 @@
       <c r="F25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="37">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.46875</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.489583333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="37">
       <c r="A26" s="5">
         <v>42484</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="10">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="10">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1820,27 +2267,37 @@
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="25">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.489583333336</v>
+      </c>
+      <c r="R26" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.520833333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="25">
       <c r="A27" s="5">
         <v>42484</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="10">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
@@ -1850,27 +2307,37 @@
       <c r="F27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" ht="25">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.520833333336</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.552083333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="25">
       <c r="A28" s="5">
         <v>42484</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="10">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="10">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
@@ -1880,27 +2347,37 @@
       <c r="F28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" ht="49">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.552083333336</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.583333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="49">
       <c r="A29" s="5">
         <v>42484</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="10">
+        <v>0.625</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>72</v>
       </c>
@@ -1910,27 +2387,37 @@
       <c r="F29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" ht="61">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.583333333336</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="61">
       <c r="A30" s="5">
         <v>42484</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="10">
         <v>0.625</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="10">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>74</v>
       </c>
@@ -1940,27 +2427,37 @@
       <c r="F30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" ht="25">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.625</v>
+      </c>
+      <c r="R30" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.645833333336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="25">
       <c r="A31" s="5">
         <v>42484</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="10">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
@@ -1970,27 +2467,37 @@
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" ht="49">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.645833333336</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.663194444445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="49">
       <c r="A32" s="5">
         <v>42484</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="10">
         <v>0.66319444444444442</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="10">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
@@ -2000,27 +2507,37 @@
       <c r="F32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" ht="97">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.663194444445</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.666666666664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="97">
       <c r="A33" s="5">
         <v>42484</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="10">
+        <v>0.68402777777777779</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>77</v>
       </c>
@@ -2030,27 +2547,37 @@
       <c r="F33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" ht="49">
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.666666666664</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.684027777781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="49">
       <c r="A34" s="5">
         <v>42484</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="10">
         <v>0.68402777777777779</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="10">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>78</v>
       </c>
@@ -2060,27 +2587,35 @@
       <c r="F34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" ht="37">
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.684027777781</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.791666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="37">
       <c r="A35" s="5">
         <v>42484</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>0.79236111111111107</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2092,27 +2627,35 @@
       <c r="F35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" ht="25">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.791666666664</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.792361111111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="25">
       <c r="A36" s="5">
         <v>42484</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="10">
         <v>0.84375</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>0.89236111111111116</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2124,25 +2667,33 @@
       <c r="F36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" ht="25">
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="12">
+        <f t="shared" si="0"/>
+        <v>42484.84375</v>
+      </c>
+      <c r="R36" s="12">
+        <f t="shared" si="1"/>
+        <v>42484.892361111109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="25">
       <c r="A37" s="5">
         <v>42485</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>0.4861111111111111</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2154,27 +2705,35 @@
       <c r="F37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" ht="25">
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.416666666664</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.486111111109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="25">
       <c r="A38" s="5">
         <v>42485</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>0.54166666666666663</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2186,27 +2745,35 @@
       <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" ht="49">
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.520833333336</v>
+      </c>
+      <c r="R38" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.541666666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="49">
       <c r="A39" s="5">
         <v>42485</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>0.56597222222222221</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2218,27 +2785,35 @@
       <c r="F39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" ht="49">
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.541666666664</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.565972222219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="49">
       <c r="A40" s="5">
         <v>42485</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="10">
         <v>0.57638888888888884</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>0.64583333333333337</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2250,27 +2825,35 @@
       <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" ht="49">
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.576388888891</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.645833333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="49">
       <c r="A41" s="5">
         <v>42485</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>0.69444444444444442</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2282,27 +2865,35 @@
       <c r="F41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" ht="25">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.666666666664</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.694444444445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="25">
       <c r="A42" s="5">
         <v>42485</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>0.70833333333333337</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2314,27 +2905,35 @@
       <c r="F42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" ht="25">
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.701388888891</v>
+      </c>
+      <c r="R42" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.708333333336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="25">
       <c r="A43" s="5">
         <v>42485</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="10">
         <v>0.70972222222222225</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>0.71250000000000002</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2346,27 +2945,35 @@
       <c r="F43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" ht="25">
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.709722222222</v>
+      </c>
+      <c r="R43" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.712500000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="25">
       <c r="A44" s="5">
         <v>42485</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="10">
         <v>0.74305555555555558</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>0.82638888888888884</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2378,27 +2985,35 @@
       <c r="F44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.743055555555</v>
+      </c>
+      <c r="R44" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.826388888891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="5">
         <v>42485</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>0.89583333333333337</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2410,27 +3025,35 @@
       <c r="F45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" ht="49">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.833333333336</v>
+      </c>
+      <c r="R45" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.895833333336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="49">
       <c r="A46" s="5">
         <v>42485</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="10">
         <v>0.9375</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>0.94791666666666663</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2442,27 +3065,35 @@
       <c r="F46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" ht="49">
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="12">
+        <f t="shared" si="0"/>
+        <v>42485.9375</v>
+      </c>
+      <c r="R46" s="12">
+        <f t="shared" si="1"/>
+        <v>42485.947916666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="49">
       <c r="A47" s="5">
         <v>42486</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="10">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>0.3888888888888889</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2474,27 +3105,35 @@
       <c r="F47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" ht="61">
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.385416666664</v>
+      </c>
+      <c r="R47" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.388888888891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="61">
       <c r="A48" s="5">
         <v>42486</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>0.47916666666666669</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2506,27 +3145,35 @@
       <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" ht="25">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.416666666664</v>
+      </c>
+      <c r="R48" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.479166666664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="25">
       <c r="A49" s="5">
         <v>42486</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="4">
         <v>0.5</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2538,27 +3185,35 @@
       <c r="F49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" ht="25">
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.493055555555</v>
+      </c>
+      <c r="R49" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="25">
       <c r="A50" s="5">
         <v>42486</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="10">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="4">
         <v>0.53125</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2570,31 +3225,39 @@
       <c r="F50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15">
         <v>2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="15">
         <v>3</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2">
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15">
         <v>3</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.524305555555</v>
+      </c>
+      <c r="R50" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.53125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="5">
         <v>42486</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="4">
         <v>0.61458333333333337</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2606,27 +3269,35 @@
       <c r="F51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15">
         <v>9</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" ht="37">
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.541666666664</v>
+      </c>
+      <c r="R51" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.614583333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="37">
       <c r="A52" s="5">
         <v>42486</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="10">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="4">
         <v>0.6875</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2638,27 +3309,35 @@
       <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15">
         <v>8</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" ht="25">
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.677083333336</v>
+      </c>
+      <c r="R52" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.6875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="25">
       <c r="A53" s="5">
         <v>42486</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="4">
         <v>0.70833333333333337</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2670,27 +3349,35 @@
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2">
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15">
         <v>6</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" ht="73">
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.701388888891</v>
+      </c>
+      <c r="R53" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.708333333336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="73">
       <c r="A54" s="5">
         <v>42486</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="10">
         <v>0.76041666666666663</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="4">
         <v>0.76388888888888884</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2702,31 +3389,39 @@
       <c r="F54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2">
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15">
         <v>4</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2">
+      <c r="J54" s="15"/>
+      <c r="K54" s="15">
         <v>4</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="15">
         <v>1</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" ht="61">
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.760416666664</v>
+      </c>
+      <c r="R54" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.763888888891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="61">
       <c r="A55" s="5">
         <v>42486</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="10">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="4">
         <v>0.89236111111111116</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2738,25 +3433,33 @@
       <c r="F55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="133">
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.850694444445</v>
+      </c>
+      <c r="R55" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.892361111109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="133">
       <c r="A56" s="5">
         <v>42486</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="4">
         <v>0.90625</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2768,29 +3471,37 @@
       <c r="F56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2">
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15">
         <v>2</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2">
+      <c r="L56" s="15"/>
+      <c r="M56" s="15">
         <v>1</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="49">
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.902777777781</v>
+      </c>
+      <c r="R56" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.90625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="49">
       <c r="A57" s="5">
         <v>42486</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="10">
         <v>0.98958333333333337</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="4">
         <v>0.99027777777777781</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2800,25 +3511,33 @@
         <v>40</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16" ht="25">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="12">
+        <f t="shared" si="0"/>
+        <v>42486.989583333336</v>
+      </c>
+      <c r="R57" s="12">
+        <f t="shared" si="1"/>
+        <v>42486.990277777775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="25">
       <c r="A58" s="5">
         <v>42487</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>0.4861111111111111</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -2830,29 +3549,37 @@
       <c r="F58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2">
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15">
         <v>4</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2">
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="73">
+      <c r="Q58" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.416666666664</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.486111111109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="73">
       <c r="A59" s="5">
         <v>42487</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="4">
         <v>0.49652777777777779</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2864,29 +3591,37 @@
       <c r="F59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2">
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15">
         <v>2</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2">
+      <c r="L59" s="15"/>
+      <c r="M59" s="15">
         <v>4</v>
       </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" ht="25">
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.493055555555</v>
+      </c>
+      <c r="R59" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.496527777781</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="25">
       <c r="A60" s="5">
         <v>42487</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="10">
         <v>0.50347222222222221</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="4">
         <v>0.50694444444444442</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2898,27 +3633,35 @@
       <c r="F60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2">
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15">
         <v>3</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" ht="49">
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.503472222219</v>
+      </c>
+      <c r="R60" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.506944444445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="49">
       <c r="A61" s="5">
         <v>42487</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="10">
         <v>0.51041666666666663</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="4">
         <v>0.52777777777777779</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2930,31 +3673,39 @@
       <c r="F61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2">
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15">
         <v>3</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2">
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15">
         <v>2</v>
       </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2">
+      <c r="O61" s="15"/>
+      <c r="P61" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="37">
+      <c r="Q61" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.510416666664</v>
+      </c>
+      <c r="R61" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.527777777781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="37">
       <c r="A62" s="5">
         <v>42487</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="4">
         <v>0.56944444444444442</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2966,29 +3717,37 @@
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2">
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15">
         <v>6</v>
       </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2">
+      <c r="L62" s="15"/>
+      <c r="M62" s="15">
         <v>3</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" ht="49">
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.541666666664</v>
+      </c>
+      <c r="R62" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.569444444445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="49">
       <c r="A63" s="5">
         <v>42487</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="10">
         <v>0.57638888888888884</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="4">
         <v>0.64583333333333337</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3000,29 +3759,37 @@
       <c r="F63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2">
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15">
         <v>6</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2">
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="121">
+      <c r="Q63" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.576388888891</v>
+      </c>
+      <c r="R63" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.645833333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="121">
       <c r="A64" s="5">
         <v>42487</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="4">
         <v>0.58680555555555558</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3034,31 +3801,39 @@
       <c r="F64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2">
+      <c r="G64" s="15"/>
+      <c r="H64" s="15">
         <v>4</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2">
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15">
         <v>2</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2">
+      <c r="L64" s="15"/>
+      <c r="M64" s="15">
         <v>7</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" ht="37">
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.583333333336</v>
+      </c>
+      <c r="R64" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.586805555555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="37">
       <c r="A65" s="5">
         <v>42487</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="10">
         <v>0.64930555555555558</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="4">
         <v>0.67708333333333337</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -3070,33 +3845,41 @@
       <c r="F65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2">
+      <c r="G65" s="15"/>
+      <c r="H65" s="15">
         <v>2</v>
       </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2">
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15">
         <v>5</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2">
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15">
         <v>2</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="15">
         <v>2</v>
       </c>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" ht="25">
+      <c r="P65" s="15"/>
+      <c r="Q65" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.649305555555</v>
+      </c>
+      <c r="R65" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.677083333336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="25">
       <c r="A66" s="5">
         <v>42487</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="4">
         <v>0.68819444444444444</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -3108,31 +3891,39 @@
       <c r="F66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2">
+      <c r="G66" s="15"/>
+      <c r="H66" s="15">
         <v>2</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2">
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15">
         <v>8</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2">
+      <c r="L66" s="15"/>
+      <c r="M66" s="15">
         <v>8</v>
       </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" ht="25">
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="12">
+        <f t="shared" si="0"/>
+        <v>42487.6875</v>
+      </c>
+      <c r="R66" s="12">
+        <f t="shared" si="1"/>
+        <v>42487.688194444447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="25">
       <c r="A67" s="5">
         <v>42487</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="10">
         <v>0.68888888888888888</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="4">
         <v>0.69791666666666663</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3144,31 +3935,39 @@
       <c r="F67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2">
+      <c r="G67" s="15"/>
+      <c r="H67" s="15">
         <v>4</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2">
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15">
         <v>9</v>
       </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2">
+      <c r="L67" s="15"/>
+      <c r="M67" s="15">
         <v>9</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" ht="61">
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="12">
+        <f t="shared" ref="Q67:Q128" si="2">A67+B67</f>
+        <v>42487.688888888886</v>
+      </c>
+      <c r="R67" s="12">
+        <f t="shared" ref="R67:R128" si="3">A67+C67</f>
+        <v>42487.697916666664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="61">
       <c r="A68" s="5">
         <v>42487</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="10">
         <v>0.79513888888888884</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="4">
         <v>0.83333333333333337</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -3180,25 +3979,33 @@
       <c r="F68" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" ht="37">
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="12">
+        <f t="shared" si="2"/>
+        <v>42487.795138888891</v>
+      </c>
+      <c r="R68" s="12">
+        <f t="shared" si="3"/>
+        <v>42487.833333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="37">
       <c r="A69" s="5">
         <v>42487</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="4">
         <v>0.97291666666666665</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3210,27 +4017,35 @@
       <c r="F69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2">
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15">
         <v>10</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" ht="61">
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="12">
+        <f t="shared" si="2"/>
+        <v>42487.972222222219</v>
+      </c>
+      <c r="R69" s="12">
+        <f t="shared" si="3"/>
+        <v>42487.972916666666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="61">
       <c r="A70" s="5">
         <v>42488</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="4">
         <v>0.47916666666666669</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -3242,27 +4057,35 @@
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2">
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15">
         <v>10</v>
       </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="1:16" ht="25">
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="12">
+        <f t="shared" si="2"/>
+        <v>42488.416666666664</v>
+      </c>
+      <c r="R70" s="12">
+        <f t="shared" si="3"/>
+        <v>42488.479166666664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="25">
       <c r="A71" s="5">
         <v>42488</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="10">
         <v>0.60763888888888884</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="4">
         <v>0.60833333333333328</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -3274,29 +4097,37 @@
       <c r="F71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2">
+      <c r="G71" s="15"/>
+      <c r="H71" s="15">
         <v>5</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2">
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15">
         <v>8</v>
       </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" ht="25">
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="12">
+        <f t="shared" si="2"/>
+        <v>42488.607638888891</v>
+      </c>
+      <c r="R71" s="12">
+        <f t="shared" si="3"/>
+        <v>42488.60833333333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="25">
       <c r="A72" s="5">
         <v>42488</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="10">
         <v>0.6118055555555556</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="4">
         <v>0.61250000000000004</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3308,29 +4139,37 @@
       <c r="F72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2">
+      <c r="G72" s="15"/>
+      <c r="H72" s="15">
         <v>5</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2">
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15">
         <v>8</v>
       </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" ht="25">
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="12">
+        <f t="shared" si="2"/>
+        <v>42488.611805555556</v>
+      </c>
+      <c r="R72" s="12">
+        <f t="shared" si="3"/>
+        <v>42488.612500000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="25">
       <c r="A73" s="5">
         <v>42488</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="10">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="4">
         <v>0.64930555555555558</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3342,31 +4181,39 @@
       <c r="F73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2">
+      <c r="G73" s="15"/>
+      <c r="H73" s="15">
         <v>3</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="15">
         <v>2</v>
       </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2">
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15">
         <v>1</v>
       </c>
-      <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" ht="25">
+      <c r="P73" s="15"/>
+      <c r="Q73" s="12">
+        <f t="shared" si="2"/>
+        <v>42488.642361111109</v>
+      </c>
+      <c r="R73" s="12">
+        <f t="shared" si="3"/>
+        <v>42488.649305555555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="25">
       <c r="A74" s="5">
         <v>42488</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="10">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="4">
         <v>0.72222222222222221</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3378,31 +4225,39 @@
       <c r="F74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2">
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15">
         <v>5</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="15">
         <v>2</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2">
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15">
         <v>2</v>
       </c>
-      <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:16" ht="37">
+      <c r="P74" s="15"/>
+      <c r="Q74" s="12">
+        <f t="shared" si="2"/>
+        <v>42488.677083333336</v>
+      </c>
+      <c r="R74" s="12">
+        <f t="shared" si="3"/>
+        <v>42488.722222222219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="37">
       <c r="A75" s="5">
         <v>42488</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="10">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="4">
         <v>0.82638888888888884</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3414,29 +4269,37 @@
       <c r="F75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2">
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15">
         <v>7</v>
       </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2">
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15">
         <v>4</v>
       </c>
-      <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" ht="61">
+      <c r="P75" s="15"/>
+      <c r="Q75" s="12">
+        <f t="shared" si="2"/>
+        <v>42488.739583333336</v>
+      </c>
+      <c r="R75" s="12">
+        <f t="shared" si="3"/>
+        <v>42488.826388888891</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="61">
       <c r="A76" s="5">
         <v>42488</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="10">
         <v>0.88194444444444442</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="4">
         <v>0.92361111111111116</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3448,25 +4311,33 @@
       <c r="F76" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="1:16" ht="73">
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="12">
+        <f t="shared" si="2"/>
+        <v>42488.881944444445</v>
+      </c>
+      <c r="R76" s="12">
+        <f t="shared" si="3"/>
+        <v>42488.923611111109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="73">
       <c r="A77" s="5">
         <v>42489</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="10">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="4">
         <v>0.39583333333333331</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3478,29 +4349,37 @@
       <c r="F77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2">
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15">
         <v>5</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="15">
         <v>10</v>
       </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-    </row>
-    <row r="78" spans="1:16" ht="25">
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="12">
+        <f t="shared" si="2"/>
+        <v>42489.354166666664</v>
+      </c>
+      <c r="R77" s="12">
+        <f t="shared" si="3"/>
+        <v>42489.395833333336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="25">
       <c r="A78" s="5">
         <v>42489</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="10">
         <v>0.4375</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="4">
         <v>0.45833333333333331</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3512,33 +4391,41 @@
       <c r="F78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2">
+      <c r="G78" s="15"/>
+      <c r="H78" s="15">
         <v>5</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="15">
         <v>5</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="15">
         <v>5</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2">
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15">
         <v>8</v>
       </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:16" ht="97">
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="12">
+        <f t="shared" si="2"/>
+        <v>42489.4375</v>
+      </c>
+      <c r="R78" s="12">
+        <f t="shared" si="3"/>
+        <v>42489.458333333336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="97">
       <c r="A79" s="5">
         <v>42489</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="4">
         <v>0.63541666666666663</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3550,31 +4437,39 @@
       <c r="F79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2">
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15">
         <v>2</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="15">
         <v>5</v>
       </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2">
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="37">
+      <c r="Q79" s="12">
+        <f t="shared" si="2"/>
+        <v>42489.458333333336</v>
+      </c>
+      <c r="R79" s="12">
+        <f t="shared" si="3"/>
+        <v>42489.635416666664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="37">
       <c r="A80" s="5">
         <v>42489</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="10">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="4">
         <v>0.72916666666666663</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3586,31 +4481,39 @@
       <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2">
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15">
         <v>2</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="15">
         <v>2</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="15">
         <v>4</v>
       </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="12">
+        <f t="shared" si="2"/>
+        <v>42489.635416666664</v>
+      </c>
+      <c r="R80" s="12">
+        <f t="shared" si="3"/>
+        <v>42489.729166666664</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="5">
         <v>42489</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>0.86805555555555558</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3622,29 +4525,37 @@
       <c r="F81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2">
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15">
         <v>7</v>
       </c>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2">
+      <c r="L81" s="15"/>
+      <c r="M81" s="15">
         <v>2</v>
       </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="1:16" ht="61">
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="12">
+        <f t="shared" si="2"/>
+        <v>42489.729166666664</v>
+      </c>
+      <c r="R81" s="12">
+        <f t="shared" si="3"/>
+        <v>42489.868055555555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="61">
       <c r="A82" s="5">
         <v>42489</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="10">
         <v>0.86805555555555558</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>0.90625</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3656,25 +4567,33 @@
       <c r="F82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="1:16" ht="37">
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="12">
+        <f t="shared" si="2"/>
+        <v>42489.868055555555</v>
+      </c>
+      <c r="R82" s="12">
+        <f t="shared" si="3"/>
+        <v>42489.90625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="37">
       <c r="A83" s="5">
         <v>42489</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="10">
         <v>0.92013888888888884</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>0.99930555555555556</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -3686,29 +4605,37 @@
       <c r="F83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2">
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15">
         <v>2</v>
       </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2">
+      <c r="J83" s="15"/>
+      <c r="K83" s="15">
         <v>5</v>
       </c>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="1:16" ht="61">
-      <c r="A84" s="7">
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="12">
+        <f t="shared" si="2"/>
+        <v>42489.920138888891</v>
+      </c>
+      <c r="R83" s="12">
+        <f t="shared" si="3"/>
+        <v>42489.999305555553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="61">
+      <c r="A84" s="5">
         <v>42490</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="10">
         <v>0</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -3720,29 +4647,37 @@
       <c r="F84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2">
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15">
         <v>8</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="15">
         <v>2</v>
       </c>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="1:16" ht="25">
-      <c r="A85" s="7">
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="12">
+        <f t="shared" si="2"/>
         <v>42490</v>
       </c>
-      <c r="B85" s="6">
+      <c r="R84" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.027777777781</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="25">
+      <c r="A85" s="5">
+        <v>42490</v>
+      </c>
+      <c r="B85" s="10">
         <v>0.3923611111111111</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="4">
         <v>0.39930555555555558</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -3754,31 +4689,39 @@
       <c r="F85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2">
+      <c r="G85" s="15"/>
+      <c r="H85" s="15">
         <v>4</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="15">
         <v>4</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="15">
         <v>2</v>
       </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-    </row>
-    <row r="86" spans="1:16" ht="37">
-      <c r="A86" s="7">
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.392361111109</v>
+      </c>
+      <c r="R85" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.399305555555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="37">
+      <c r="A86" s="5">
         <v>42490</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="10">
         <v>0.4</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="6">
         <v>0.42708333333333331</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -3790,29 +4733,37 @@
       <c r="F86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2">
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15">
         <v>5</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="15">
         <v>5</v>
       </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="1:16" ht="49">
-      <c r="A87" s="7">
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.400000000001</v>
+      </c>
+      <c r="R86" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.427083333336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="49">
+      <c r="A87" s="5">
         <v>42490</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="10">
         <v>0.42777777777777776</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="4">
         <v>0.45833333333333331</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -3824,29 +4775,37 @@
       <c r="F87" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2">
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15">
         <v>5</v>
       </c>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2">
+      <c r="L87" s="15"/>
+      <c r="M87" s="15">
         <v>2</v>
       </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-    </row>
-    <row r="88" spans="1:16" ht="73">
-      <c r="A88" s="7">
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.427777777775</v>
+      </c>
+      <c r="R87" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.458333333336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="73">
+      <c r="A88" s="5">
         <v>42490</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="10">
         <v>0.45902777777777776</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>0.5</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -3858,29 +4817,37 @@
       <c r="F88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2">
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15">
         <v>4</v>
       </c>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2">
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="25">
-      <c r="A89" s="7">
+      <c r="Q88" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.459027777775</v>
+      </c>
+      <c r="R88" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="25">
+      <c r="A89" s="5">
         <v>42490</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="10">
         <v>0.50069444444444444</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>0.61111111111111116</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -3892,29 +4859,37 @@
       <c r="F89" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2">
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15">
         <v>4</v>
       </c>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2">
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="73">
-      <c r="A90" s="7">
+      <c r="Q89" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.500694444447</v>
+      </c>
+      <c r="R89" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.611111111109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="73">
+      <c r="A90" s="5">
         <v>42490</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="10">
         <v>0.6118055555555556</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>0.64583333333333337</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3926,27 +4901,35 @@
       <c r="F90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2">
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15">
         <v>4</v>
       </c>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="7">
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.611805555556</v>
+      </c>
+      <c r="R90" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.645833333336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="5">
         <v>42490</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>0.79166666666666663</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3958,33 +4941,41 @@
       <c r="F91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2">
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15">
         <v>4</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="15">
         <v>2</v>
       </c>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2">
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15">
         <v>2</v>
       </c>
-      <c r="P91" s="2">
+      <c r="P91" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" ht="25">
-      <c r="A92" s="7">
+      <c r="Q91" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.652777777781</v>
+      </c>
+      <c r="R91" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.791666666664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="25">
+      <c r="A92" s="5">
         <v>42490</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="10">
         <v>0.79236111111111107</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="4">
         <v>0.92708333333333337</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3996,27 +4987,35 @@
       <c r="F92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2">
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15">
         <v>10</v>
       </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:16" ht="25">
-      <c r="A93" s="7">
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.792361111111</v>
+      </c>
+      <c r="R92" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.927083333336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="25">
+      <c r="A93" s="5">
         <v>42490</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="4">
         <v>0.86458333333333337</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -4028,29 +5027,37 @@
       <c r="F93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2">
+      <c r="G93" s="15"/>
+      <c r="H93" s="15">
         <v>4</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="15">
         <v>6</v>
       </c>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-    </row>
-    <row r="94" spans="1:16" ht="37">
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="12">
+        <f t="shared" si="2"/>
+        <v>42490.854166666664</v>
+      </c>
+      <c r="R93" s="12">
+        <f t="shared" si="3"/>
+        <v>42490.864583333336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="37">
       <c r="A94" s="5">
         <v>42491</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="4">
         <v>0.79166666666666663</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -4062,29 +5069,37 @@
       <c r="F94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2">
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15">
         <v>4</v>
       </c>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2">
+      <c r="L94" s="15"/>
+      <c r="M94" s="15">
         <v>2</v>
       </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-    </row>
-    <row r="95" spans="1:16" ht="25">
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="12">
+        <f t="shared" si="2"/>
+        <v>42491.458333333336</v>
+      </c>
+      <c r="R94" s="12">
+        <f t="shared" si="3"/>
+        <v>42491.791666666664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="25">
       <c r="A95" s="5">
         <v>42491</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="10">
         <v>0.57638888888888884</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>0.56597222222222221</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -4096,27 +5111,35 @@
       <c r="F95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2">
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15">
         <v>8</v>
       </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-    </row>
-    <row r="96" spans="1:16" ht="49">
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="12">
+        <f t="shared" si="2"/>
+        <v>42491.576388888891</v>
+      </c>
+      <c r="R95" s="12">
+        <f t="shared" si="3"/>
+        <v>42491.565972222219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="49">
       <c r="A96" s="5">
         <v>42491</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="10">
         <v>0.63124999999999998</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>0.63194444444444442</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -4128,31 +5151,39 @@
       <c r="F96" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2">
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15">
         <v>10</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96" s="15">
         <v>10</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96" s="15">
         <v>10</v>
       </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-    </row>
-    <row r="97" spans="1:16" ht="97">
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="12">
+        <f t="shared" si="2"/>
+        <v>42491.631249999999</v>
+      </c>
+      <c r="R96" s="12">
+        <f t="shared" si="3"/>
+        <v>42491.631944444445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="97">
       <c r="A97" s="5">
         <v>42491</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="10">
         <v>0.71180555555555558</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>0.71875</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -4164,31 +5195,39 @@
       <c r="F97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2">
+      <c r="G97" s="15"/>
+      <c r="H97" s="15">
         <v>2</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="15">
         <v>2</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="15">
         <v>5</v>
       </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-    </row>
-    <row r="98" spans="1:16" ht="61">
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="12">
+        <f t="shared" si="2"/>
+        <v>42491.711805555555</v>
+      </c>
+      <c r="R97" s="12">
+        <f t="shared" si="3"/>
+        <v>42491.71875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="61">
       <c r="A98" s="5">
         <v>42491</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="10">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>0.89930555555555558</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -4200,25 +5239,33 @@
       <c r="F98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-    </row>
-    <row r="99" spans="1:16" ht="25">
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="12">
+        <f t="shared" si="2"/>
+        <v>42491.857638888891</v>
+      </c>
+      <c r="R98" s="12">
+        <f t="shared" si="3"/>
+        <v>42491.899305555555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="25">
       <c r="A99" s="5">
         <v>42492</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="10">
         <v>0.28472222222222221</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>0.29166666666666669</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -4230,31 +5277,39 @@
       <c r="F99" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2">
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15">
         <v>2</v>
       </c>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2">
+      <c r="L99" s="15"/>
+      <c r="M99" s="15">
         <v>2</v>
       </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2">
+      <c r="N99" s="15"/>
+      <c r="O99" s="15">
         <v>8</v>
       </c>
-      <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:16" ht="25">
+      <c r="P99" s="15"/>
+      <c r="Q99" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.284722222219</v>
+      </c>
+      <c r="R99" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.291666666664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="25">
       <c r="A100" s="5">
         <v>42492</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="10">
         <v>0.3611111111111111</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>0.36319444444444443</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4266,31 +5321,39 @@
       <c r="F100" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2">
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15">
         <v>3</v>
       </c>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2">
+      <c r="L100" s="15"/>
+      <c r="M100" s="15">
         <v>6</v>
       </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2">
+      <c r="N100" s="15"/>
+      <c r="O100" s="15">
         <v>6</v>
       </c>
-      <c r="P100" s="2"/>
-    </row>
-    <row r="101" spans="1:16" ht="25">
+      <c r="P100" s="15"/>
+      <c r="Q100" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.361111111109</v>
+      </c>
+      <c r="R100" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.363194444442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="25">
       <c r="A101" s="5">
         <v>42492</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="10">
         <v>0.375</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>0.40625</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -4302,31 +5365,39 @@
       <c r="F101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2">
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15">
         <v>2</v>
       </c>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2">
+      <c r="L101" s="15"/>
+      <c r="M101" s="15">
         <v>6</v>
       </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2">
+      <c r="N101" s="15"/>
+      <c r="O101" s="15">
         <v>4</v>
       </c>
-      <c r="P101" s="2"/>
-    </row>
-    <row r="102" spans="1:16" ht="25">
+      <c r="P101" s="15"/>
+      <c r="Q101" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.375</v>
+      </c>
+      <c r="R101" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.40625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="25">
       <c r="A102" s="5">
         <v>42492</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="4">
         <v>0.4861111111111111</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -4338,33 +5409,41 @@
       <c r="F102" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2">
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15">
         <v>4</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="15">
         <v>4</v>
       </c>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2">
+      <c r="L102" s="15"/>
+      <c r="M102" s="15">
         <v>2</v>
       </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2">
+      <c r="N102" s="15"/>
+      <c r="O102" s="15">
         <v>2</v>
       </c>
-      <c r="P102" s="2"/>
-    </row>
-    <row r="103" spans="1:16" ht="85">
+      <c r="P102" s="15"/>
+      <c r="Q102" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.416666666664</v>
+      </c>
+      <c r="R102" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.486111111109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="85">
       <c r="A103" s="5">
         <v>42492</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="10">
         <v>0.5</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="4">
         <v>0.50694444444444442</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -4376,31 +5455,39 @@
       <c r="F103" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2">
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15">
         <v>4</v>
       </c>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2">
+      <c r="L103" s="15"/>
+      <c r="M103" s="15">
         <v>10</v>
       </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2">
+      <c r="N103" s="15"/>
+      <c r="O103" s="15">
         <v>2</v>
       </c>
-      <c r="P103" s="2"/>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="P103" s="15"/>
+      <c r="Q103" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.5</v>
+      </c>
+      <c r="R103" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.506944444445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="5">
         <v>42492</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="4">
         <v>0.5541666666666667</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -4412,31 +5499,39 @@
       <c r="F104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2">
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15">
         <v>4</v>
       </c>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2">
+      <c r="L104" s="15"/>
+      <c r="M104" s="15">
         <v>2</v>
       </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2">
+      <c r="N104" s="15"/>
+      <c r="O104" s="15">
         <v>2</v>
       </c>
-      <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="P104" s="15"/>
+      <c r="Q104" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.506944444445</v>
+      </c>
+      <c r="R104" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.554166666669</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="5">
         <v>42492</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="10">
         <v>0.55486111111111114</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="4">
         <v>0.55555555555555558</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -4448,31 +5543,39 @@
       <c r="F105" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2">
+      <c r="G105" s="15"/>
+      <c r="H105" s="15">
         <v>8</v>
       </c>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2">
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15">
         <v>3</v>
       </c>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2">
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15">
         <v>2</v>
       </c>
-      <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:16" ht="25">
+      <c r="P105" s="15"/>
+      <c r="Q105" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.554861111108</v>
+      </c>
+      <c r="R105" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.555555555555</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="25">
       <c r="A106" s="5">
         <v>42492</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="4">
         <v>0.55625000000000002</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -4484,31 +5587,39 @@
       <c r="F106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2">
+      <c r="G106" s="15"/>
+      <c r="H106" s="15">
         <v>5</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="15">
         <v>5</v>
       </c>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2">
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15">
         <v>2</v>
       </c>
-      <c r="P106" s="2"/>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="P106" s="15"/>
+      <c r="Q106" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.555555555555</v>
+      </c>
+      <c r="R106" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.556250000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="5">
         <v>42492</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="10">
         <v>0.56805555555555554</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="4">
         <v>0.57638888888888884</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -4520,27 +5631,35 @@
       <c r="F107" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2">
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15">
         <v>8</v>
       </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:16" ht="49">
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.568055555559</v>
+      </c>
+      <c r="R107" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.576388888891</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="49">
       <c r="A108" s="5">
         <v>42492</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="10">
         <v>0.5756944444444444</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="4">
         <v>0.57638888888888884</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -4552,29 +5671,37 @@
       <c r="F108" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2">
+      <c r="G108" s="15"/>
+      <c r="H108" s="15">
         <v>5</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="15">
         <v>5</v>
       </c>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-    </row>
-    <row r="109" spans="1:16" ht="121">
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.575694444444</v>
+      </c>
+      <c r="R108" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.576388888891</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="121">
       <c r="A109" s="5">
         <v>42492</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="4">
         <v>0.59027777777777779</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -4586,29 +5713,37 @@
       <c r="F109" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2">
+      <c r="G109" s="15"/>
+      <c r="H109" s="15">
         <v>3</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2">
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15">
         <v>9</v>
       </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-    </row>
-    <row r="110" spans="1:16" ht="25">
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.583333333336</v>
+      </c>
+      <c r="R109" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.590277777781</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="25">
       <c r="A110" s="5">
         <v>42492</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="10">
         <v>0.59097222222222223</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="4">
         <v>0.68402777777777779</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -4620,27 +5755,35 @@
       <c r="F110" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2">
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15">
         <v>5</v>
       </c>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-    </row>
-    <row r="111" spans="1:16" ht="25">
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.59097222222</v>
+      </c>
+      <c r="R110" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.684027777781</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="25">
       <c r="A111" s="5">
         <v>42492</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="4">
         <v>0.69097222222222221</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -4652,29 +5795,37 @@
       <c r="F111" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2">
+      <c r="G111" s="15"/>
+      <c r="H111" s="15">
         <v>3</v>
       </c>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2">
+      <c r="I111" s="15"/>
+      <c r="J111" s="15">
         <v>3</v>
       </c>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-    </row>
-    <row r="112" spans="1:16" ht="61">
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.6875</v>
+      </c>
+      <c r="R111" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.690972222219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="61">
       <c r="A112" s="5">
         <v>42492</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="4">
         <v>0.71180555555555558</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -4686,29 +5837,37 @@
       <c r="F112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2">
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15">
         <v>5</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="15">
         <v>2</v>
       </c>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.701388888891</v>
+      </c>
+      <c r="R112" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.711805555555</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="5">
         <v>42492</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="10">
         <v>0.75</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="4">
         <v>0.81944444444444442</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4720,31 +5879,39 @@
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2">
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15">
         <v>2</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113" s="15">
         <v>8</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="15">
         <v>2</v>
       </c>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-    </row>
-    <row r="114" spans="1:16" ht="61">
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.75</v>
+      </c>
+      <c r="R113" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.819444444445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="61">
       <c r="A114" s="5">
         <v>42492</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="10">
         <v>0.85833333333333328</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="4">
         <v>0.8833333333333333</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -4756,25 +5923,33 @@
       <c r="F114" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-    </row>
-    <row r="115" spans="1:16" ht="37">
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.85833333333</v>
+      </c>
+      <c r="R114" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.883333333331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="37">
       <c r="A115" s="5">
         <v>42492</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="10">
         <v>0.875</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="4">
         <v>0.88888888888888884</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -4786,29 +5961,37 @@
       <c r="F115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2">
+      <c r="G115" s="15"/>
+      <c r="H115" s="15">
         <v>2</v>
       </c>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2">
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15">
         <v>3</v>
       </c>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.875</v>
+      </c>
+      <c r="R115" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.888888888891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="5">
         <v>42492</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="10">
         <v>0.88958333333333328</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="4">
         <v>0.91666666666666663</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -4820,29 +6003,37 @@
       <c r="F116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2">
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15">
         <v>3</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="15">
         <v>1</v>
       </c>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="12">
+        <f t="shared" si="2"/>
+        <v>42492.88958333333</v>
+      </c>
+      <c r="R116" s="12">
+        <f t="shared" si="3"/>
+        <v>42492.916666666664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="5">
         <v>42493</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="4">
         <v>0.33680555555555558</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -4854,31 +6045,39 @@
       <c r="F117" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2">
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15">
         <v>2</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="15">
         <v>2</v>
       </c>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2">
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15">
         <v>10</v>
       </c>
-      <c r="P117" s="2"/>
-    </row>
-    <row r="118" spans="1:16" ht="25">
+      <c r="P117" s="15"/>
+      <c r="Q117" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.333333333336</v>
+      </c>
+      <c r="R117" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.336805555555</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="25">
       <c r="A118" s="5">
         <v>42493</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="10">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="4">
         <v>0.40625</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -4890,33 +6089,41 @@
       <c r="F118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2">
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15">
         <v>3</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="15">
         <v>5</v>
       </c>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2">
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15">
         <v>7</v>
       </c>
-      <c r="P118" s="2">
+      <c r="P118" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" ht="37">
+      <c r="Q118" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.354166666664</v>
+      </c>
+      <c r="R118" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.40625</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="37">
       <c r="A119" s="5">
         <v>42493</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="10">
         <v>0.40694444444444444</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="4">
         <v>0.43402777777777779</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -4926,29 +6133,37 @@
       <c r="F119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2">
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15">
         <v>8</v>
       </c>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2">
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15">
         <v>6</v>
       </c>
-      <c r="P119" s="2"/>
-    </row>
-    <row r="120" spans="1:16" ht="25">
+      <c r="P119" s="15"/>
+      <c r="Q119" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.406944444447</v>
+      </c>
+      <c r="R119" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.434027777781</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="25">
       <c r="A120" s="5">
         <v>42493</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="10">
         <v>0.4375</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="4">
         <v>0.47916666666666669</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -4960,31 +6175,39 @@
       <c r="F120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2">
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15">
         <v>6</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="15">
         <v>2</v>
       </c>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2">
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15">
         <v>6</v>
       </c>
-      <c r="P120" s="2"/>
-    </row>
-    <row r="121" spans="1:16" ht="25">
+      <c r="P120" s="15"/>
+      <c r="Q120" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.4375</v>
+      </c>
+      <c r="R120" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.479166666664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="25">
       <c r="A121" s="5">
         <v>42493</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="10">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="4">
         <v>0.66666666666666663</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -4996,29 +6219,37 @@
       <c r="F121" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2">
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15">
         <v>8</v>
       </c>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2">
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15">
         <v>6</v>
       </c>
-      <c r="P121" s="2"/>
-    </row>
-    <row r="122" spans="1:16" ht="61">
+      <c r="P121" s="15"/>
+      <c r="Q121" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.489583333336</v>
+      </c>
+      <c r="R121" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.666666666664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="61">
       <c r="A122" s="5">
         <v>42493</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="10">
         <v>0.5</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="4">
         <v>0.50347222222222221</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -5030,29 +6261,37 @@
       <c r="F122" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2">
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15">
         <v>4</v>
       </c>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2">
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15">
         <v>6</v>
       </c>
-      <c r="P122" s="2"/>
-    </row>
-    <row r="123" spans="1:16" ht="37">
+      <c r="P122" s="15"/>
+      <c r="Q122" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.5</v>
+      </c>
+      <c r="R122" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.503472222219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="37">
       <c r="A123" s="5">
         <v>42493</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="4">
         <v>0.57291666666666663</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -5064,33 +6303,41 @@
       <c r="F123" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2">
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15">
         <v>5</v>
       </c>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2">
+      <c r="J123" s="15"/>
+      <c r="K123" s="15">
         <v>3</v>
       </c>
-      <c r="L123" s="2">
+      <c r="L123" s="15">
         <v>4</v>
       </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2">
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15">
         <v>5</v>
       </c>
-      <c r="P123" s="2"/>
-    </row>
-    <row r="124" spans="1:16" ht="25">
+      <c r="P123" s="15"/>
+      <c r="Q123" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.5625</v>
+      </c>
+      <c r="R123" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.572916666664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="25">
       <c r="A124" s="5">
         <v>42493</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="10">
         <v>0.65625</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="4">
         <v>0.66666666666666663</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -5102,31 +6349,39 @@
       <c r="F124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2">
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15">
         <v>4</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="15">
         <v>2</v>
       </c>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2">
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15">
         <v>5</v>
       </c>
-      <c r="P124" s="2"/>
-    </row>
-    <row r="125" spans="1:16" ht="49">
+      <c r="P124" s="15"/>
+      <c r="Q124" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.65625</v>
+      </c>
+      <c r="R124" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.666666666664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="49">
       <c r="A125" s="5">
         <v>42493</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="4">
         <v>0.72916666666666663</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -5138,29 +6393,37 @@
       <c r="F125" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2">
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15">
         <v>3</v>
       </c>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2">
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15">
         <v>5</v>
       </c>
-      <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:16" ht="85">
+      <c r="P125" s="15"/>
+      <c r="Q125" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.6875</v>
+      </c>
+      <c r="R125" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.729166666664</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="85">
       <c r="A126" s="5">
         <v>42493</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="10">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="4">
         <v>0.77777777777777779</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -5172,29 +6435,37 @@
       <c r="F126" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2">
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15">
         <v>4</v>
       </c>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2">
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15">
         <v>5</v>
       </c>
-      <c r="P126" s="2"/>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="P126" s="15"/>
+      <c r="Q126" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.770833333336</v>
+      </c>
+      <c r="R126" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.777777777781</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="5">
         <v>42493</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="10">
         <v>0.31944444444444442</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="4">
         <v>0.83333333333333337</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -5206,31 +6477,39 @@
       <c r="F127" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2">
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15">
         <v>4</v>
       </c>
-      <c r="L127" s="2">
+      <c r="L127" s="15">
         <v>4</v>
       </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2">
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15">
         <v>5</v>
       </c>
-      <c r="P127" s="2"/>
-    </row>
-    <row r="128" spans="1:16" ht="49">
+      <c r="P127" s="15"/>
+      <c r="Q127" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.319444444445</v>
+      </c>
+      <c r="R127" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.833333333336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="49">
       <c r="A128" s="5">
         <v>42493</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="10">
         <v>0.8666666666666667</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="4">
         <v>0.38541666666666669</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -5242,19 +6521,28 @@
       <c r="F128" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="12">
+        <f t="shared" si="2"/>
+        <v>42493.866666666669</v>
+      </c>
+      <c r="R128" s="12">
+        <f t="shared" si="3"/>
+        <v>42493.385416666664</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/journalData/sarah.xlsx
+++ b/journalData/sarah.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-32500" yWindow="0" windowWidth="32500" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,9 +617,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="h&quot;:&quot;mm&quot;:&quot;ss&quot; &quot;AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="h&quot;:&quot;mm&quot;:&quot;ss&quot; &quot;AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -673,8 +673,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -762,10 +766,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -778,26 +782,26 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -837,6 +841,8 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -876,6 +882,8 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1207,259 +1215,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="10.83203125" style="11"/>
-    <col min="7" max="16" width="10.83203125" style="16"/>
-    <col min="17" max="17" width="21.1640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="10.83203125" style="11"/>
+    <col min="9" max="18" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="73">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="2" spans="1:18" ht="25">
-      <c r="A2" s="5">
+      <c r="A2" s="12">
+        <f>C2+D2</f>
+        <v>42482.574999999997</v>
+      </c>
+      <c r="B2" s="12">
+        <f>C2+E2</f>
+        <v>42482.675000000003</v>
+      </c>
+      <c r="C2" s="5">
         <v>42482</v>
       </c>
-      <c r="B2" s="10">
+      <c r="D2" s="10">
         <v>0.57499999999999996</v>
       </c>
-      <c r="C2" s="10">
+      <c r="E2" s="10">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="M2" s="15">
+        <v>6</v>
+      </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="12">
-        <f>A2+B2</f>
-        <v>42482.574999999997</v>
-      </c>
-      <c r="R2" s="12">
-        <f>A2+C2</f>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="25">
+      <c r="A3" s="12">
+        <f>C3+D3</f>
         <v>42482.675000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="25">
-      <c r="A3" s="5">
+      <c r="B3" s="12">
+        <f>C3+E3</f>
+        <v>42482.71875</v>
+      </c>
+      <c r="C3" s="5">
         <v>42482</v>
       </c>
-      <c r="B3" s="10">
+      <c r="D3" s="10">
         <v>0.67500000000000004</v>
       </c>
-      <c r="C3" s="10">
+      <c r="E3" s="10">
         <v>0.71875</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="M3" s="15">
+        <v>6</v>
+      </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="12">
-        <f t="shared" ref="Q3:Q66" si="0">A3+B3</f>
-        <v>42482.675000000003</v>
-      </c>
-      <c r="R3" s="12">
-        <f t="shared" ref="R3:R66" si="1">A3+C3</f>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" ht="145">
+      <c r="A4" s="12">
+        <f>C4+E3</f>
         <v>42482.71875</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="145">
-      <c r="A4" s="5">
+      <c r="B4" s="12">
+        <f>C4+E4</f>
+        <v>42482.795138888891</v>
+      </c>
+      <c r="C4" s="5">
         <v>42482</v>
       </c>
-      <c r="B4" s="10">
+      <c r="D4" s="10">
         <v>0.71875</v>
       </c>
-      <c r="C4" s="10">
+      <c r="E4" s="10">
         <v>0.79513888888888884</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="15">
+        <v>10</v>
+      </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="12">
-        <f>A4+C3</f>
-        <v>42482.71875</v>
-      </c>
-      <c r="R4" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="25">
+      <c r="A5" s="12">
+        <f>C5+D5</f>
         <v>42482.795138888891</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="25">
-      <c r="A5" s="5">
+      <c r="B5" s="12">
+        <f>C5+E5</f>
+        <v>42482.802083333336</v>
+      </c>
+      <c r="C5" s="5">
         <v>42482</v>
       </c>
-      <c r="B5" s="10">
+      <c r="D5" s="10">
         <v>0.79513888888888884</v>
       </c>
-      <c r="C5" s="10">
+      <c r="E5" s="10">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="15">
+        <v>5</v>
+      </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="15">
+        <v>3</v>
+      </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="12">
-        <f t="shared" si="0"/>
-        <v>42482.795138888891</v>
-      </c>
-      <c r="R5" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="61">
+      <c r="A6" s="12">
+        <f>C6+E5</f>
         <v>42482.802083333336</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="61">
-      <c r="A6" s="5">
+      <c r="B6" s="12">
+        <f>C6+E6</f>
+        <v>42482.809027777781</v>
+      </c>
+      <c r="C6" s="5">
         <v>42482</v>
       </c>
-      <c r="B6" s="10">
+      <c r="D6" s="10">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C6" s="10">
+      <c r="E6" s="10">
         <v>0.80902777777777779</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -1467,39 +1491,39 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="12">
-        <f>A6+C5</f>
-        <v>42482.802083333336</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="109">
+      <c r="A7" s="12">
+        <f>C7+E6</f>
         <v>42482.809027777781</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="109">
-      <c r="A7" s="5">
+      <c r="B7" s="12">
+        <f>C7+E7</f>
+        <v>42482.819444444445</v>
+      </c>
+      <c r="C7" s="5">
         <v>42482</v>
       </c>
-      <c r="B7" s="10">
+      <c r="D7" s="10">
         <v>0.80902777777777779</v>
       </c>
-      <c r="C7" s="10">
+      <c r="E7" s="10">
         <v>0.81944444444444442</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -1507,39 +1531,39 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="12">
-        <f>A7+C6</f>
-        <v>42482.809027777781</v>
-      </c>
-      <c r="R7" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="193">
+      <c r="A8" s="12">
+        <f>C8+D8</f>
         <v>42482.819444444445</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="193">
-      <c r="A8" s="5">
+      <c r="B8" s="12">
+        <f>C8+E8</f>
+        <v>42482.854166666664</v>
+      </c>
+      <c r="C8" s="5">
         <v>42482</v>
       </c>
-      <c r="B8" s="10">
+      <c r="D8" s="10">
         <v>0.81944444444444442</v>
       </c>
-      <c r="C8" s="10">
+      <c r="E8" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1547,39 +1571,39 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="12">
-        <f t="shared" si="0"/>
-        <v>42482.819444444445</v>
-      </c>
-      <c r="R8" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" ht="37">
+      <c r="A9" s="12">
+        <f>C9+E8</f>
         <v>42482.854166666664</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="37">
-      <c r="A9" s="5">
+      <c r="B9" s="12">
+        <f>C9+E9</f>
+        <v>42482.875</v>
+      </c>
+      <c r="C9" s="5">
         <v>42482</v>
       </c>
-      <c r="B9" s="10">
+      <c r="D9" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C9" s="10">
+      <c r="E9" s="10">
         <v>0.875</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1587,39 +1611,39 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="12">
-        <f>A9+C8</f>
-        <v>42482.854166666664</v>
-      </c>
-      <c r="R9" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="12">
+        <f>C10+E9</f>
         <v>42482.875</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="5">
+      <c r="B10" s="12">
+        <f>C10+E10</f>
+        <v>42482.909722222219</v>
+      </c>
+      <c r="C10" s="5">
         <v>42482</v>
       </c>
-      <c r="B10" s="10">
+      <c r="D10" s="10">
         <v>0.875</v>
       </c>
-      <c r="C10" s="10">
+      <c r="E10" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -1627,36 +1651,36 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="12">
-        <f>A10+C9</f>
-        <v>42482.875</v>
-      </c>
-      <c r="R10" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" ht="37">
+      <c r="A11" s="12">
+        <f>C11+E10</f>
         <v>42482.909722222219</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="37">
-      <c r="A11" s="5">
+      <c r="B11" s="12">
+        <f>C11+E11</f>
+        <v>42482.958333333336</v>
+      </c>
+      <c r="C11" s="5">
         <v>42482</v>
       </c>
-      <c r="B11" s="10">
+      <c r="D11" s="10">
         <v>0.90972222222222221</v>
       </c>
-      <c r="C11" s="10">
+      <c r="E11" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -1665,39 +1689,39 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="12">
-        <f>A11+C10</f>
-        <v>42482.909722222219</v>
-      </c>
-      <c r="R11" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" ht="25">
+      <c r="A12" s="12">
+        <f>C12+E11</f>
         <v>42482.958333333336</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="25">
-      <c r="A12" s="5">
+      <c r="B12" s="12">
+        <f>C12+E12</f>
+        <v>42482.208333333336</v>
+      </c>
+      <c r="C12" s="5">
         <v>42482</v>
       </c>
-      <c r="B12" s="10">
+      <c r="D12" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C12" s="10">
+      <c r="E12" s="10">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -1705,39 +1729,39 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="12">
-        <f>A12+C11</f>
-        <v>42482.958333333336</v>
-      </c>
-      <c r="R12" s="12">
-        <f t="shared" si="1"/>
-        <v>42482.208333333336</v>
-      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="97">
-      <c r="A13" s="5">
+      <c r="A13" s="12">
+        <f>C13+E12</f>
+        <v>42483.208333333336</v>
+      </c>
+      <c r="B13" s="12">
+        <f>C13+E13</f>
+        <v>42483.34375</v>
+      </c>
+      <c r="C13" s="5">
         <v>42483</v>
       </c>
-      <c r="B13" s="10">
+      <c r="D13" s="10">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C13" s="10">
+      <c r="E13" s="10">
         <v>0.34375</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -1745,39 +1769,39 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="12">
-        <f>A13+C12</f>
-        <v>42483.208333333336</v>
-      </c>
-      <c r="R13" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" ht="37">
+      <c r="A14" s="12">
+        <f>C14+E13</f>
         <v>42483.34375</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="37">
-      <c r="A14" s="5">
+      <c r="B14" s="12">
+        <f>C14+E14</f>
+        <v>42483.385416666664</v>
+      </c>
+      <c r="C14" s="5">
         <v>42483</v>
       </c>
-      <c r="B14" s="10">
+      <c r="D14" s="10">
         <v>0.34375</v>
       </c>
-      <c r="C14" s="10">
+      <c r="E14" s="10">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1785,39 +1809,39 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="12">
-        <f>A14+C13</f>
-        <v>42483.34375</v>
-      </c>
-      <c r="R14" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" ht="25">
+      <c r="A15" s="12">
+        <f>C15+E14</f>
         <v>42483.385416666664</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="25">
-      <c r="A15" s="5">
+      <c r="B15" s="12">
+        <f>C15+E15</f>
+        <v>42483.5</v>
+      </c>
+      <c r="C15" s="5">
         <v>42483</v>
       </c>
-      <c r="B15" s="10">
+      <c r="D15" s="10">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C15" s="10">
+      <c r="E15" s="10">
         <v>0.5</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1825,39 +1849,39 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="12">
-        <f>A15+C14</f>
-        <v>42483.385416666664</v>
-      </c>
-      <c r="R15" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" ht="73">
+      <c r="A16" s="12">
+        <f>C16+D16</f>
         <v>42483.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="73">
-      <c r="A16" s="5">
+      <c r="B16" s="12">
+        <f>C16+E16</f>
+        <v>42483.614583333336</v>
+      </c>
+      <c r="C16" s="5">
         <v>42483</v>
       </c>
-      <c r="B16" s="10">
+      <c r="D16" s="10">
         <v>0.5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="E16" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -1865,248 +1889,248 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.5</v>
-      </c>
-      <c r="R16" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" ht="37">
+      <c r="A17" s="12">
+        <f>C17+D17</f>
         <v>42483.614583333336</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="37">
-      <c r="A17" s="5">
+      <c r="B17" s="12">
+        <f>C17+E17</f>
+        <v>42483.666666666664</v>
+      </c>
+      <c r="C17" s="5">
         <v>42483</v>
       </c>
-      <c r="B17" s="10">
+      <c r="D17" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C17" s="10">
+      <c r="E17" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="15">
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15">
         <v>9</v>
       </c>
-      <c r="O17" s="15">
+      <c r="Q17" s="15">
         <v>7</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.614583333336</v>
-      </c>
-      <c r="R17" s="12">
-        <f t="shared" si="1"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" ht="25">
+      <c r="A18" s="12">
+        <f>C18+D18</f>
         <v>42483.666666666664</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="25">
-      <c r="A18" s="5">
+      <c r="B18" s="12">
+        <f>C18+E18</f>
+        <v>42483.770833333336</v>
+      </c>
+      <c r="C18" s="5">
         <v>42483</v>
       </c>
-      <c r="B18" s="10">
+      <c r="D18" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" s="10">
+      <c r="E18" s="10">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="15">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15">
         <v>6</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.666666666664</v>
-      </c>
-      <c r="R18" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" ht="61">
+      <c r="A19" s="12">
+        <f>C19+D19</f>
         <v>42483.770833333336</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="61">
-      <c r="A19" s="5">
+      <c r="B19" s="12">
+        <f>C19+E19</f>
+        <v>42483.802083333336</v>
+      </c>
+      <c r="C19" s="5">
         <v>42483</v>
       </c>
-      <c r="B19" s="10">
+      <c r="D19" s="10">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C19" s="10">
+      <c r="E19" s="10">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="15">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
         <v>4</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.770833333336</v>
-      </c>
-      <c r="R19" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" ht="37">
+      <c r="A20" s="12">
+        <f>C20+D20</f>
         <v>42483.802083333336</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="37">
-      <c r="A20" s="5">
+      <c r="B20" s="12">
+        <f>C20+E20</f>
+        <v>42483.822916666664</v>
+      </c>
+      <c r="C20" s="5">
         <v>42483</v>
       </c>
-      <c r="B20" s="10">
+      <c r="D20" s="10">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C20" s="10">
+      <c r="E20" s="10">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="15">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
         <v>5</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.802083333336</v>
-      </c>
-      <c r="R20" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="61">
+      <c r="A21" s="12">
+        <f>C21+D21</f>
         <v>42483.822916666664</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="61">
-      <c r="A21" s="5">
+      <c r="B21" s="12">
+        <f>C21+E21</f>
+        <v>42483.864583333336</v>
+      </c>
+      <c r="C21" s="5">
         <v>42483</v>
       </c>
-      <c r="B21" s="10">
+      <c r="D21" s="10">
         <v>0.82291666666666663</v>
       </c>
-      <c r="C21" s="10">
+      <c r="E21" s="10">
         <v>0.86458333333333337</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15">
         <v>4</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.822916666664</v>
-      </c>
-      <c r="R21" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" ht="37">
+      <c r="A22" s="12">
+        <f>C22+D22</f>
         <v>42483.864583333336</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="37">
-      <c r="A22" s="5">
+      <c r="B22" s="12">
+        <f>C22+E22</f>
+        <v>42483.958333333336</v>
+      </c>
+      <c r="C22" s="5">
         <v>42483</v>
       </c>
-      <c r="B22" s="10">
+      <c r="D22" s="10">
         <v>0.86458333333333337</v>
       </c>
-      <c r="C22" s="10">
+      <c r="E22" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -2115,123 +2139,123 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.864583333336</v>
-      </c>
-      <c r="R22" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" ht="25">
+      <c r="A23" s="12">
+        <f>C23+D23</f>
         <v>42483.958333333336</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="25">
-      <c r="A23" s="5">
+      <c r="B23" s="12">
+        <f>C23+E23</f>
         <v>42483</v>
       </c>
-      <c r="B23" s="10">
+      <c r="C23" s="5">
+        <v>42483</v>
+      </c>
+      <c r="D23" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C23" s="10">
+      <c r="E23" s="10">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15">
+      <c r="J23" s="15"/>
+      <c r="K23" s="15">
         <v>7</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="12">
-        <f t="shared" si="0"/>
-        <v>42483.958333333336</v>
-      </c>
-      <c r="R23" s="12">
-        <f t="shared" si="1"/>
-        <v>42483</v>
-      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" spans="1:18" ht="37">
-      <c r="A24" s="5">
+      <c r="A24" s="12">
+        <f>C24+D24</f>
         <v>42484</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="12">
+        <f>C24+E24</f>
+        <v>42484.46875</v>
+      </c>
+      <c r="C24" s="5">
+        <v>42484</v>
+      </c>
+      <c r="D24" s="10">
         <v>0</v>
       </c>
-      <c r="C24" s="10">
+      <c r="E24" s="10">
         <v>0.46875</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15">
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
         <v>10</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="12">
-        <f t="shared" si="0"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" ht="49">
+      <c r="A25" s="12">
+        <f>C25+D25</f>
+        <v>42484.46875</v>
+      </c>
+      <c r="B25" s="12">
+        <f>C25+E25</f>
+        <v>42484.489583333336</v>
+      </c>
+      <c r="C25" s="5">
         <v>42484</v>
       </c>
-      <c r="R24" s="12">
-        <f t="shared" si="1"/>
-        <v>42484.46875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="49">
-      <c r="A25" s="5">
-        <v>42484</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="D25" s="10">
         <v>0.46875</v>
       </c>
-      <c r="C25" s="10">
+      <c r="E25" s="10">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -2239,39 +2263,39 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.46875</v>
-      </c>
-      <c r="R25" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:18" ht="37">
+      <c r="A26" s="12">
+        <f>C26+D26</f>
         <v>42484.489583333336</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="37">
-      <c r="A26" s="5">
+      <c r="B26" s="12">
+        <f>C26+E26</f>
+        <v>42484.520833333336</v>
+      </c>
+      <c r="C26" s="5">
         <v>42484</v>
       </c>
-      <c r="B26" s="10">
+      <c r="D26" s="10">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C26" s="10">
+      <c r="E26" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -2279,39 +2303,39 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.489583333336</v>
-      </c>
-      <c r="R26" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:18" ht="25">
+      <c r="A27" s="12">
+        <f>C27+D27</f>
         <v>42484.520833333336</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="25">
-      <c r="A27" s="5">
+      <c r="B27" s="12">
+        <f>C27+E27</f>
+        <v>42484.552083333336</v>
+      </c>
+      <c r="C27" s="5">
         <v>42484</v>
       </c>
-      <c r="B27" s="10">
+      <c r="D27" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C27" s="10">
+      <c r="E27" s="10">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -2319,39 +2343,39 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.520833333336</v>
-      </c>
-      <c r="R27" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:18" ht="25">
+      <c r="A28" s="12">
+        <f>C28+D28</f>
         <v>42484.552083333336</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="25">
-      <c r="A28" s="5">
+      <c r="B28" s="12">
+        <f>C28+E28</f>
+        <v>42484.583333333336</v>
+      </c>
+      <c r="C28" s="5">
         <v>42484</v>
       </c>
-      <c r="B28" s="10">
+      <c r="D28" s="10">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C28" s="10">
+      <c r="E28" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -2359,39 +2383,39 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.552083333336</v>
-      </c>
-      <c r="R28" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:18" ht="49">
+      <c r="A29" s="12">
+        <f>C29+D29</f>
         <v>42484.583333333336</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="49">
-      <c r="A29" s="5">
+      <c r="B29" s="12">
+        <f>C29+E29</f>
+        <v>42484.625</v>
+      </c>
+      <c r="C29" s="5">
         <v>42484</v>
       </c>
-      <c r="B29" s="10">
+      <c r="D29" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C29" s="10">
+      <c r="E29" s="10">
         <v>0.625</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
@@ -2399,39 +2423,39 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.583333333336</v>
-      </c>
-      <c r="R29" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" spans="1:18" ht="61">
+      <c r="A30" s="12">
+        <f>C30+D30</f>
         <v>42484.625</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="61">
-      <c r="A30" s="5">
+      <c r="B30" s="12">
+        <f>C30+E30</f>
+        <v>42484.645833333336</v>
+      </c>
+      <c r="C30" s="5">
         <v>42484</v>
       </c>
-      <c r="B30" s="10">
+      <c r="D30" s="10">
         <v>0.625</v>
       </c>
-      <c r="C30" s="10">
+      <c r="E30" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -2439,39 +2463,39 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.625</v>
-      </c>
-      <c r="R30" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+    </row>
+    <row r="31" spans="1:18" ht="25">
+      <c r="A31" s="12">
+        <f>C31+D31</f>
         <v>42484.645833333336</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="25">
-      <c r="A31" s="5">
+      <c r="B31" s="12">
+        <f>C31+E31</f>
+        <v>42484.663194444445</v>
+      </c>
+      <c r="C31" s="5">
         <v>42484</v>
       </c>
-      <c r="B31" s="10">
+      <c r="D31" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C31" s="10">
+      <c r="E31" s="10">
         <v>0.66319444444444442</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="I31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -2479,39 +2503,39 @@
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.645833333336</v>
-      </c>
-      <c r="R31" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" ht="49">
+      <c r="A32" s="12">
+        <f>C32+D32</f>
         <v>42484.663194444445</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="49">
-      <c r="A32" s="5">
+      <c r="B32" s="12">
+        <f>C32+E32</f>
+        <v>42484.666666666664</v>
+      </c>
+      <c r="C32" s="5">
         <v>42484</v>
       </c>
-      <c r="B32" s="10">
+      <c r="D32" s="10">
         <v>0.66319444444444442</v>
       </c>
-      <c r="C32" s="10">
+      <c r="E32" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="I32" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -2519,39 +2543,39 @@
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.663194444445</v>
-      </c>
-      <c r="R32" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+    </row>
+    <row r="33" spans="1:18" ht="97">
+      <c r="A33" s="12">
+        <f>C33+D33</f>
         <v>42484.666666666664</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="97">
-      <c r="A33" s="5">
+      <c r="B33" s="12">
+        <f>C33+E33</f>
+        <v>42484.684027777781</v>
+      </c>
+      <c r="C33" s="5">
         <v>42484</v>
       </c>
-      <c r="B33" s="10">
+      <c r="D33" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C33" s="10">
+      <c r="E33" s="10">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -2559,39 +2583,39 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.666666666664</v>
-      </c>
-      <c r="R33" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+    </row>
+    <row r="34" spans="1:18" ht="49">
+      <c r="A34" s="12">
+        <f>C34+D34</f>
         <v>42484.684027777781</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="49">
-      <c r="A34" s="5">
+      <c r="B34" s="12">
+        <f>C34+E34</f>
+        <v>42484.791666666664</v>
+      </c>
+      <c r="C34" s="5">
         <v>42484</v>
       </c>
-      <c r="B34" s="10">
+      <c r="D34" s="10">
         <v>0.68402777777777779</v>
       </c>
-      <c r="C34" s="10">
+      <c r="E34" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="I34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -2599,39 +2623,39 @@
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.684027777781</v>
-      </c>
-      <c r="R34" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+    </row>
+    <row r="35" spans="1:18" ht="37">
+      <c r="A35" s="12">
+        <f>C35+D35</f>
         <v>42484.791666666664</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="37">
-      <c r="A35" s="5">
+      <c r="B35" s="12">
+        <f>C35+E35</f>
+        <v>42484.792361111111</v>
+      </c>
+      <c r="C35" s="5">
         <v>42484</v>
       </c>
-      <c r="B35" s="10">
+      <c r="D35" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C35" s="4">
+      <c r="E35" s="4">
         <v>0.79236111111111107</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="I35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
@@ -2639,36 +2663,36 @@
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.791666666664</v>
-      </c>
-      <c r="R35" s="12">
-        <f t="shared" si="1"/>
-        <v>42484.792361111111</v>
-      </c>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18" ht="25">
-      <c r="A36" s="5">
+      <c r="A36" s="12">
+        <f>C36+D36</f>
+        <v>42484.84375</v>
+      </c>
+      <c r="B36" s="12">
+        <f>C36+E36</f>
+        <v>42484.892361111109</v>
+      </c>
+      <c r="C36" s="5">
         <v>42484</v>
       </c>
-      <c r="B36" s="10">
+      <c r="D36" s="10">
         <v>0.84375</v>
       </c>
-      <c r="C36" s="4">
+      <c r="E36" s="4">
         <v>0.89236111111111116</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -2677,39 +2701,39 @@
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="12">
-        <f t="shared" si="0"/>
-        <v>42484.84375</v>
-      </c>
-      <c r="R36" s="12">
-        <f t="shared" si="1"/>
-        <v>42484.892361111109</v>
-      </c>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
     </row>
     <row r="37" spans="1:18" ht="25">
-      <c r="A37" s="5">
+      <c r="A37" s="12">
+        <f>C37+D37</f>
+        <v>42485.416666666664</v>
+      </c>
+      <c r="B37" s="12">
+        <f>C37+E37</f>
+        <v>42485.486111111109</v>
+      </c>
+      <c r="C37" s="5">
         <v>42485</v>
       </c>
-      <c r="B37" s="10">
+      <c r="D37" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C37" s="4">
+      <c r="E37" s="4">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -2717,39 +2741,39 @@
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
-      <c r="Q37" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.416666666664</v>
-      </c>
-      <c r="R37" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.486111111109</v>
-      </c>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
     </row>
     <row r="38" spans="1:18" ht="25">
-      <c r="A38" s="5">
+      <c r="A38" s="12">
+        <f>C38+D38</f>
+        <v>42485.520833333336</v>
+      </c>
+      <c r="B38" s="12">
+        <f>C38+E38</f>
+        <v>42485.541666666664</v>
+      </c>
+      <c r="C38" s="5">
         <v>42485</v>
       </c>
-      <c r="B38" s="10">
+      <c r="D38" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C38" s="4">
+      <c r="E38" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="I38" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -2757,39 +2781,39 @@
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.520833333336</v>
-      </c>
-      <c r="R38" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="1:18" ht="49">
+      <c r="A39" s="12">
+        <f>C39+D39</f>
         <v>42485.541666666664</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="49">
-      <c r="A39" s="5">
+      <c r="B39" s="12">
+        <f>C39+E39</f>
+        <v>42485.565972222219</v>
+      </c>
+      <c r="C39" s="5">
         <v>42485</v>
       </c>
-      <c r="B39" s="10">
+      <c r="D39" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C39" s="4">
+      <c r="E39" s="4">
         <v>0.56597222222222221</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="I39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -2797,39 +2821,39 @@
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
-      <c r="Q39" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.541666666664</v>
-      </c>
-      <c r="R39" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.565972222219</v>
-      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="1:18" ht="49">
-      <c r="A40" s="5">
+      <c r="A40" s="12">
+        <f>C40+D40</f>
+        <v>42485.576388888891</v>
+      </c>
+      <c r="B40" s="12">
+        <f>C40+E40</f>
+        <v>42485.645833333336</v>
+      </c>
+      <c r="C40" s="5">
         <v>42485</v>
       </c>
-      <c r="B40" s="10">
+      <c r="D40" s="10">
         <v>0.57638888888888884</v>
       </c>
-      <c r="C40" s="4">
+      <c r="E40" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="I40" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -2837,39 +2861,39 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
-      <c r="Q40" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.576388888891</v>
-      </c>
-      <c r="R40" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.645833333336</v>
-      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
     </row>
     <row r="41" spans="1:18" ht="49">
-      <c r="A41" s="5">
+      <c r="A41" s="12">
+        <f>C41+D41</f>
+        <v>42485.666666666664</v>
+      </c>
+      <c r="B41" s="12">
+        <f>C41+E41</f>
+        <v>42485.694444444445</v>
+      </c>
+      <c r="C41" s="5">
         <v>42485</v>
       </c>
-      <c r="B41" s="10">
+      <c r="D41" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C41" s="4">
+      <c r="E41" s="4">
         <v>0.69444444444444442</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="I41" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -2877,39 +2901,39 @@
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
-      <c r="Q41" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.666666666664</v>
-      </c>
-      <c r="R41" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.694444444445</v>
-      </c>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
     </row>
     <row r="42" spans="1:18" ht="25">
-      <c r="A42" s="5">
+      <c r="A42" s="12">
+        <f>C42+D42</f>
+        <v>42485.701388888891</v>
+      </c>
+      <c r="B42" s="12">
+        <f>C42+E42</f>
+        <v>42485.708333333336</v>
+      </c>
+      <c r="C42" s="5">
         <v>42485</v>
       </c>
-      <c r="B42" s="10">
+      <c r="D42" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C42" s="4">
+      <c r="E42" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -2917,39 +2941,39 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.701388888891</v>
-      </c>
-      <c r="R42" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.708333333336</v>
-      </c>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
     </row>
     <row r="43" spans="1:18" ht="25">
-      <c r="A43" s="5">
+      <c r="A43" s="12">
+        <f>C43+D43</f>
+        <v>42485.709722222222</v>
+      </c>
+      <c r="B43" s="12">
+        <f>C43+E43</f>
+        <v>42485.712500000001</v>
+      </c>
+      <c r="C43" s="5">
         <v>42485</v>
       </c>
-      <c r="B43" s="10">
+      <c r="D43" s="10">
         <v>0.70972222222222225</v>
       </c>
-      <c r="C43" s="4">
+      <c r="E43" s="4">
         <v>0.71250000000000002</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="I43" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -2957,39 +2981,39 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-      <c r="Q43" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.709722222222</v>
-      </c>
-      <c r="R43" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.712500000001</v>
-      </c>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
     </row>
     <row r="44" spans="1:18" ht="25">
-      <c r="A44" s="5">
+      <c r="A44" s="12">
+        <f>C44+D44</f>
+        <v>42485.743055555555</v>
+      </c>
+      <c r="B44" s="12">
+        <f>C44+E44</f>
+        <v>42485.826388888891</v>
+      </c>
+      <c r="C44" s="5">
         <v>42485</v>
       </c>
-      <c r="B44" s="10">
+      <c r="D44" s="10">
         <v>0.74305555555555558</v>
       </c>
-      <c r="C44" s="4">
+      <c r="E44" s="4">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -2997,39 +3021,39 @@
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
-      <c r="Q44" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.743055555555</v>
-      </c>
-      <c r="R44" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.826388888891</v>
-      </c>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="5">
+      <c r="A45" s="12">
+        <f>C45+D45</f>
+        <v>42485.833333333336</v>
+      </c>
+      <c r="B45" s="12">
+        <f>C45+E45</f>
+        <v>42485.895833333336</v>
+      </c>
+      <c r="C45" s="5">
         <v>42485</v>
       </c>
-      <c r="B45" s="10">
+      <c r="D45" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C45" s="4">
+      <c r="E45" s="4">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="I45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -3037,39 +3061,39 @@
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
-      <c r="Q45" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.833333333336</v>
-      </c>
-      <c r="R45" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.895833333336</v>
-      </c>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
     </row>
     <row r="46" spans="1:18" ht="49">
-      <c r="A46" s="5">
+      <c r="A46" s="12">
+        <f>C46+D46</f>
+        <v>42485.9375</v>
+      </c>
+      <c r="B46" s="12">
+        <f>C46+E46</f>
+        <v>42485.947916666664</v>
+      </c>
+      <c r="C46" s="5">
         <v>42485</v>
       </c>
-      <c r="B46" s="10">
+      <c r="D46" s="10">
         <v>0.9375</v>
       </c>
-      <c r="C46" s="4">
+      <c r="E46" s="4">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -3077,39 +3101,39 @@
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
-      <c r="Q46" s="12">
-        <f t="shared" si="0"/>
-        <v>42485.9375</v>
-      </c>
-      <c r="R46" s="12">
-        <f t="shared" si="1"/>
-        <v>42485.947916666664</v>
-      </c>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
     </row>
     <row r="47" spans="1:18" ht="49">
-      <c r="A47" s="5">
+      <c r="A47" s="12">
+        <f>C47+D47</f>
+        <v>42486.385416666664</v>
+      </c>
+      <c r="B47" s="12">
+        <f>C47+E47</f>
+        <v>42486.388888888891</v>
+      </c>
+      <c r="C47" s="5">
         <v>42486</v>
       </c>
-      <c r="B47" s="10">
+      <c r="D47" s="10">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C47" s="4">
+      <c r="E47" s="4">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -3117,39 +3141,39 @@
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
-      <c r="Q47" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.385416666664</v>
-      </c>
-      <c r="R47" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.388888888891</v>
-      </c>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
     </row>
     <row r="48" spans="1:18" ht="61">
-      <c r="A48" s="5">
+      <c r="A48" s="12">
+        <f>C48+D48</f>
+        <v>42486.416666666664</v>
+      </c>
+      <c r="B48" s="12">
+        <f>C48+E48</f>
+        <v>42486.479166666664</v>
+      </c>
+      <c r="C48" s="5">
         <v>42486</v>
       </c>
-      <c r="B48" s="10">
+      <c r="D48" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C48" s="4">
+      <c r="E48" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="I48" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
@@ -3157,39 +3181,39 @@
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
-      <c r="Q48" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.416666666664</v>
-      </c>
-      <c r="R48" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.479166666664</v>
-      </c>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
     </row>
     <row r="49" spans="1:18" ht="25">
-      <c r="A49" s="5">
+      <c r="A49" s="12">
+        <f>C49+D49</f>
+        <v>42486.493055555555</v>
+      </c>
+      <c r="B49" s="12">
+        <f>C49+E49</f>
+        <v>42486.5</v>
+      </c>
+      <c r="C49" s="5">
         <v>42486</v>
       </c>
-      <c r="B49" s="10">
+      <c r="D49" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C49" s="4">
+      <c r="E49" s="4">
         <v>0.5</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="I49" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
@@ -3197,244 +3221,244 @@
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
-      <c r="Q49" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.493055555555</v>
-      </c>
-      <c r="R49" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.5</v>
-      </c>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
     </row>
     <row r="50" spans="1:18" ht="25">
-      <c r="A50" s="5">
+      <c r="A50" s="12">
+        <f>C50+D50</f>
+        <v>42486.524305555555</v>
+      </c>
+      <c r="B50" s="12">
+        <f>C50+E50</f>
+        <v>42486.53125</v>
+      </c>
+      <c r="C50" s="5">
         <v>42486</v>
       </c>
-      <c r="B50" s="10">
+      <c r="D50" s="10">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C50" s="4">
+      <c r="E50" s="4">
         <v>0.53125</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15">
+      <c r="I50" s="15"/>
+      <c r="J50" s="15">
         <v>2</v>
       </c>
-      <c r="I50" s="15">
+      <c r="K50" s="15">
         <v>3</v>
       </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="15">
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15">
         <v>3</v>
       </c>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
       <c r="P50" s="15"/>
-      <c r="Q50" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.524305555555</v>
-      </c>
-      <c r="R50" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.53125</v>
-      </c>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="5">
+      <c r="A51" s="12">
+        <f>C51+D51</f>
+        <v>42486.541666666664</v>
+      </c>
+      <c r="B51" s="12">
+        <f>C51+E51</f>
+        <v>42486.614583333336</v>
+      </c>
+      <c r="C51" s="5">
         <v>42486</v>
       </c>
-      <c r="B51" s="10">
+      <c r="D51" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C51" s="4">
+      <c r="E51" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="15">
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15">
         <v>9</v>
       </c>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
-      <c r="Q51" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.541666666664</v>
-      </c>
-      <c r="R51" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.614583333336</v>
-      </c>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
     </row>
     <row r="52" spans="1:18" ht="37">
-      <c r="A52" s="5">
+      <c r="A52" s="12">
+        <f>C52+D52</f>
+        <v>42486.677083333336</v>
+      </c>
+      <c r="B52" s="12">
+        <f>C52+E52</f>
+        <v>42486.6875</v>
+      </c>
+      <c r="C52" s="5">
         <v>42486</v>
       </c>
-      <c r="B52" s="10">
+      <c r="D52" s="10">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C52" s="4">
+      <c r="E52" s="4">
         <v>0.6875</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="15">
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15">
         <v>8</v>
       </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
-      <c r="Q52" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.677083333336</v>
-      </c>
-      <c r="R52" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.6875</v>
-      </c>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
     </row>
     <row r="53" spans="1:18" ht="25">
-      <c r="A53" s="5">
+      <c r="A53" s="12">
+        <f>C53+D53</f>
+        <v>42486.701388888891</v>
+      </c>
+      <c r="B53" s="12">
+        <f>C53+E53</f>
+        <v>42486.708333333336</v>
+      </c>
+      <c r="C53" s="5">
         <v>42486</v>
       </c>
-      <c r="B53" s="10">
+      <c r="D53" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C53" s="4">
+      <c r="E53" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
       <c r="I53" s="15"/>
-      <c r="J53" s="15">
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15">
         <v>6</v>
       </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
-      <c r="Q53" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.701388888891</v>
-      </c>
-      <c r="R53" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.708333333336</v>
-      </c>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
     </row>
     <row r="54" spans="1:18" ht="73">
-      <c r="A54" s="5">
+      <c r="A54" s="12">
+        <f>C54+D54</f>
+        <v>42486.760416666664</v>
+      </c>
+      <c r="B54" s="12">
+        <f>C54+E54</f>
+        <v>42486.763888888891</v>
+      </c>
+      <c r="C54" s="5">
         <v>42486</v>
       </c>
-      <c r="B54" s="10">
+      <c r="D54" s="10">
         <v>0.76041666666666663</v>
       </c>
-      <c r="C54" s="4">
+      <c r="E54" s="4">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15">
-        <v>4</v>
-      </c>
+      <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15">
         <v>4</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="15"/>
+      <c r="M54" s="15">
+        <v>4</v>
+      </c>
+      <c r="N54" s="15">
         <v>1</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
-      <c r="Q54" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.760416666664</v>
-      </c>
-      <c r="R54" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.763888888891</v>
-      </c>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
     </row>
     <row r="55" spans="1:18" ht="61">
-      <c r="A55" s="5">
+      <c r="A55" s="12">
+        <f>C55+D55</f>
+        <v>42486.850694444445</v>
+      </c>
+      <c r="B55" s="12">
+        <f>C55+E55</f>
+        <v>42486.892361111109</v>
+      </c>
+      <c r="C55" s="5">
         <v>42486</v>
       </c>
-      <c r="B55" s="10">
+      <c r="D55" s="10">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C55" s="4">
+      <c r="E55" s="4">
         <v>0.89236111111111116</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -3443,76 +3467,76 @@
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
-      <c r="Q55" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.850694444445</v>
-      </c>
-      <c r="R55" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.892361111109</v>
-      </c>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
     </row>
     <row r="56" spans="1:18" ht="133">
-      <c r="A56" s="5">
+      <c r="A56" s="12">
+        <f>C56+D56</f>
+        <v>42486.902777777781</v>
+      </c>
+      <c r="B56" s="12">
+        <f>C56+E56</f>
+        <v>42486.90625</v>
+      </c>
+      <c r="C56" s="5">
         <v>42486</v>
       </c>
-      <c r="B56" s="10">
+      <c r="D56" s="10">
         <v>0.90277777777777779</v>
       </c>
-      <c r="C56" s="4">
+      <c r="E56" s="4">
         <v>0.90625</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="15">
-        <v>2</v>
-      </c>
+      <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15">
+        <v>2</v>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15">
         <v>1</v>
       </c>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
       <c r="P56" s="15"/>
-      <c r="Q56" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.902777777781</v>
-      </c>
-      <c r="R56" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.90625</v>
-      </c>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
     </row>
     <row r="57" spans="1:18" ht="49">
-      <c r="A57" s="5">
+      <c r="A57" s="12">
+        <f>C57+D57</f>
+        <v>42486.989583333336</v>
+      </c>
+      <c r="B57" s="12">
+        <f>C57+E57</f>
+        <v>42486.990277777775</v>
+      </c>
+      <c r="C57" s="5">
         <v>42486</v>
       </c>
-      <c r="B57" s="10">
+      <c r="D57" s="10">
         <v>0.98958333333333337</v>
       </c>
-      <c r="C57" s="4">
+      <c r="E57" s="4">
         <v>0.99027777777777781</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
@@ -3521,466 +3545,466 @@
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
-      <c r="Q57" s="12">
-        <f t="shared" si="0"/>
-        <v>42486.989583333336</v>
-      </c>
-      <c r="R57" s="12">
-        <f t="shared" si="1"/>
-        <v>42486.990277777775</v>
-      </c>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
     </row>
     <row r="58" spans="1:18" ht="25">
-      <c r="A58" s="5">
+      <c r="A58" s="12">
+        <f>C58+D58</f>
+        <v>42487.416666666664</v>
+      </c>
+      <c r="B58" s="12">
+        <f>C58+E58</f>
+        <v>42487.486111111109</v>
+      </c>
+      <c r="C58" s="5">
         <v>42487</v>
       </c>
-      <c r="B58" s="10">
+      <c r="D58" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C58" s="4">
+      <c r="E58" s="4">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
       <c r="I58" s="15"/>
-      <c r="J58" s="15">
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15">
         <v>4</v>
       </c>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
-      <c r="P58" s="15">
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15">
         <v>8</v>
       </c>
-      <c r="Q58" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.416666666664</v>
-      </c>
-      <c r="R58" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.486111111109</v>
-      </c>
     </row>
     <row r="59" spans="1:18" ht="73">
-      <c r="A59" s="5">
+      <c r="A59" s="12">
+        <f>C59+D59</f>
+        <v>42487.493055555555</v>
+      </c>
+      <c r="B59" s="12">
+        <f>C59+E59</f>
+        <v>42487.496527777781</v>
+      </c>
+      <c r="C59" s="5">
         <v>42487</v>
       </c>
-      <c r="B59" s="10">
+      <c r="D59" s="10">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C59" s="4">
+      <c r="E59" s="4">
         <v>0.49652777777777779</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="15">
-        <v>2</v>
-      </c>
+      <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15">
+        <v>2</v>
+      </c>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15">
         <v>4</v>
       </c>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
       <c r="P59" s="15"/>
-      <c r="Q59" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.493055555555</v>
-      </c>
-      <c r="R59" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.496527777781</v>
-      </c>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
     </row>
     <row r="60" spans="1:18" ht="25">
-      <c r="A60" s="5">
+      <c r="A60" s="12">
+        <f>C60+D60</f>
+        <v>42487.503472222219</v>
+      </c>
+      <c r="B60" s="12">
+        <f>C60+E60</f>
+        <v>42487.506944444445</v>
+      </c>
+      <c r="C60" s="5">
         <v>42487</v>
       </c>
-      <c r="B60" s="10">
+      <c r="D60" s="10">
         <v>0.50347222222222221</v>
       </c>
-      <c r="C60" s="4">
+      <c r="E60" s="4">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="15">
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15">
         <v>3</v>
       </c>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
-      <c r="Q60" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.503472222219</v>
-      </c>
-      <c r="R60" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.506944444445</v>
-      </c>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
     </row>
     <row r="61" spans="1:18" ht="49">
-      <c r="A61" s="5">
+      <c r="A61" s="12">
+        <f>C61+D61</f>
+        <v>42487.510416666664</v>
+      </c>
+      <c r="B61" s="12">
+        <f>C61+E61</f>
+        <v>42487.527777777781</v>
+      </c>
+      <c r="C61" s="5">
         <v>42487</v>
       </c>
-      <c r="B61" s="10">
+      <c r="D61" s="10">
         <v>0.51041666666666663</v>
       </c>
-      <c r="C61" s="4">
+      <c r="E61" s="4">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
       <c r="I61" s="15"/>
-      <c r="J61" s="15">
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15">
         <v>3</v>
       </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="15">
-        <v>2</v>
-      </c>
+      <c r="N61" s="15"/>
       <c r="O61" s="15"/>
       <c r="P61" s="15">
         <v>2</v>
       </c>
-      <c r="Q61" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.510416666664</v>
-      </c>
-      <c r="R61" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.527777777781</v>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="37">
-      <c r="A62" s="5">
+      <c r="A62" s="12">
+        <f>C62+D62</f>
+        <v>42487.541666666664</v>
+      </c>
+      <c r="B62" s="12">
+        <f>C62+E62</f>
+        <v>42487.569444444445</v>
+      </c>
+      <c r="C62" s="5">
         <v>42487</v>
       </c>
-      <c r="B62" s="10">
+      <c r="D62" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C62" s="4">
+      <c r="E62" s="4">
         <v>0.56944444444444442</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="15">
-        <v>6</v>
-      </c>
+      <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15">
+        <v>6</v>
+      </c>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15">
         <v>3</v>
       </c>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
       <c r="P62" s="15"/>
-      <c r="Q62" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.541666666664</v>
-      </c>
-      <c r="R62" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.569444444445</v>
-      </c>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
     </row>
     <row r="63" spans="1:18" ht="49">
-      <c r="A63" s="5">
+      <c r="A63" s="12">
+        <f>C63+D63</f>
+        <v>42487.576388888891</v>
+      </c>
+      <c r="B63" s="12">
+        <f>C63+E63</f>
+        <v>42487.645833333336</v>
+      </c>
+      <c r="C63" s="5">
         <v>42487</v>
       </c>
-      <c r="B63" s="10">
+      <c r="D63" s="10">
         <v>0.57638888888888884</v>
       </c>
-      <c r="C63" s="4">
+      <c r="E63" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="15">
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15">
         <v>6</v>
       </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
-      <c r="P63" s="15">
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15">
         <v>6</v>
       </c>
-      <c r="Q63" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.576388888891</v>
-      </c>
-      <c r="R63" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.645833333336</v>
-      </c>
     </row>
     <row r="64" spans="1:18" ht="121">
-      <c r="A64" s="5">
+      <c r="A64" s="12">
+        <f>C64+D64</f>
+        <v>42487.583333333336</v>
+      </c>
+      <c r="B64" s="12">
+        <f>C64+E64</f>
+        <v>42487.586805555555</v>
+      </c>
+      <c r="C64" s="5">
         <v>42487</v>
       </c>
-      <c r="B64" s="10">
+      <c r="D64" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C64" s="4">
+      <c r="E64" s="4">
         <v>0.58680555555555558</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15">
+      <c r="I64" s="15"/>
+      <c r="J64" s="15">
         <v>4</v>
       </c>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15">
-        <v>2</v>
-      </c>
+      <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15">
+        <v>2</v>
+      </c>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15">
         <v>7</v>
       </c>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
       <c r="P64" s="15"/>
-      <c r="Q64" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.583333333336</v>
-      </c>
-      <c r="R64" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.586805555555</v>
-      </c>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
     </row>
     <row r="65" spans="1:18" ht="37">
-      <c r="A65" s="5">
+      <c r="A65" s="12">
+        <f>C65+D65</f>
+        <v>42487.649305555555</v>
+      </c>
+      <c r="B65" s="12">
+        <f>C65+E65</f>
+        <v>42487.677083333336</v>
+      </c>
+      <c r="C65" s="5">
         <v>42487</v>
       </c>
-      <c r="B65" s="10">
+      <c r="D65" s="10">
         <v>0.64930555555555558</v>
       </c>
-      <c r="C65" s="4">
+      <c r="E65" s="4">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15">
+      <c r="I65" s="15"/>
+      <c r="J65" s="15">
         <v>2</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15">
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15">
         <v>5</v>
       </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15">
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15">
         <v>2</v>
       </c>
-      <c r="O65" s="15">
+      <c r="Q65" s="15">
         <v>2</v>
       </c>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.649305555555</v>
-      </c>
-      <c r="R65" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.677083333336</v>
-      </c>
+      <c r="R65" s="15"/>
     </row>
     <row r="66" spans="1:18" ht="25">
-      <c r="A66" s="5">
+      <c r="A66" s="12">
+        <f>C66+D66</f>
+        <v>42487.6875</v>
+      </c>
+      <c r="B66" s="12">
+        <f>C66+E66</f>
+        <v>42487.688194444447</v>
+      </c>
+      <c r="C66" s="5">
         <v>42487</v>
       </c>
-      <c r="B66" s="10">
+      <c r="D66" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C66" s="4">
+      <c r="E66" s="4">
         <v>0.68819444444444444</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15">
+      <c r="I66" s="15"/>
+      <c r="J66" s="15">
         <v>2</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15">
-        <v>8</v>
-      </c>
+      <c r="K66" s="15"/>
       <c r="L66" s="15"/>
       <c r="M66" s="15">
         <v>8</v>
       </c>
       <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
+      <c r="O66" s="15">
+        <v>8</v>
+      </c>
       <c r="P66" s="15"/>
-      <c r="Q66" s="12">
-        <f t="shared" si="0"/>
-        <v>42487.6875</v>
-      </c>
-      <c r="R66" s="12">
-        <f t="shared" si="1"/>
-        <v>42487.688194444447</v>
-      </c>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
     </row>
     <row r="67" spans="1:18" ht="25">
-      <c r="A67" s="5">
+      <c r="A67" s="12">
+        <f>C67+D67</f>
+        <v>42487.688888888886</v>
+      </c>
+      <c r="B67" s="12">
+        <f>C67+E67</f>
+        <v>42487.697916666664</v>
+      </c>
+      <c r="C67" s="5">
         <v>42487</v>
       </c>
-      <c r="B67" s="10">
+      <c r="D67" s="10">
         <v>0.68888888888888888</v>
       </c>
-      <c r="C67" s="4">
+      <c r="E67" s="4">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15">
+      <c r="I67" s="15"/>
+      <c r="J67" s="15">
         <v>4</v>
       </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15">
-        <v>9</v>
-      </c>
+      <c r="K67" s="15"/>
       <c r="L67" s="15"/>
       <c r="M67" s="15">
         <v>9</v>
       </c>
       <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
+      <c r="O67" s="15">
+        <v>9</v>
+      </c>
       <c r="P67" s="15"/>
-      <c r="Q67" s="12">
-        <f t="shared" ref="Q67:Q128" si="2">A67+B67</f>
-        <v>42487.688888888886</v>
-      </c>
-      <c r="R67" s="12">
-        <f t="shared" ref="R67:R128" si="3">A67+C67</f>
-        <v>42487.697916666664</v>
-      </c>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
     </row>
     <row r="68" spans="1:18" ht="61">
-      <c r="A68" s="5">
+      <c r="A68" s="12">
+        <f>C68+D68</f>
+        <v>42487.795138888891</v>
+      </c>
+      <c r="B68" s="12">
+        <f>C68+E68</f>
+        <v>42487.833333333336</v>
+      </c>
+      <c r="C68" s="5">
         <v>42487</v>
       </c>
-      <c r="B68" s="10">
+      <c r="D68" s="10">
         <v>0.79513888888888884</v>
       </c>
-      <c r="C68" s="4">
+      <c r="E68" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
@@ -3989,330 +4013,330 @@
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
-      <c r="Q68" s="12">
-        <f t="shared" si="2"/>
-        <v>42487.795138888891</v>
-      </c>
-      <c r="R68" s="12">
-        <f t="shared" si="3"/>
-        <v>42487.833333333336</v>
-      </c>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
     </row>
     <row r="69" spans="1:18" ht="37">
-      <c r="A69" s="5">
+      <c r="A69" s="12">
+        <f>C69+D69</f>
+        <v>42487.972222222219</v>
+      </c>
+      <c r="B69" s="12">
+        <f>C69+E69</f>
+        <v>42487.972916666666</v>
+      </c>
+      <c r="C69" s="5">
         <v>42487</v>
       </c>
-      <c r="B69" s="10">
+      <c r="D69" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="C69" s="4">
+      <c r="E69" s="4">
         <v>0.97291666666666665</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="15">
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15">
         <v>10</v>
       </c>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
-      <c r="Q69" s="12">
-        <f t="shared" si="2"/>
-        <v>42487.972222222219</v>
-      </c>
-      <c r="R69" s="12">
-        <f t="shared" si="3"/>
-        <v>42487.972916666666</v>
-      </c>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
     </row>
     <row r="70" spans="1:18" ht="61">
-      <c r="A70" s="5">
+      <c r="A70" s="12">
+        <f>C70+D70</f>
+        <v>42488.416666666664</v>
+      </c>
+      <c r="B70" s="12">
+        <f>C70+E70</f>
+        <v>42488.479166666664</v>
+      </c>
+      <c r="C70" s="5">
         <v>42488</v>
       </c>
-      <c r="B70" s="10">
+      <c r="D70" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C70" s="4">
+      <c r="E70" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
       <c r="I70" s="15"/>
-      <c r="J70" s="15">
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15">
         <v>10</v>
       </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
-      <c r="Q70" s="12">
-        <f t="shared" si="2"/>
-        <v>42488.416666666664</v>
-      </c>
-      <c r="R70" s="12">
-        <f t="shared" si="3"/>
-        <v>42488.479166666664</v>
-      </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
     </row>
     <row r="71" spans="1:18" ht="25">
-      <c r="A71" s="5">
+      <c r="A71" s="12">
+        <f>C71+D71</f>
+        <v>42488.607638888891</v>
+      </c>
+      <c r="B71" s="12">
+        <f>C71+E71</f>
+        <v>42488.60833333333</v>
+      </c>
+      <c r="C71" s="5">
         <v>42488</v>
       </c>
-      <c r="B71" s="10">
+      <c r="D71" s="10">
         <v>0.60763888888888884</v>
       </c>
-      <c r="C71" s="4">
+      <c r="E71" s="4">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15">
+      <c r="I71" s="15"/>
+      <c r="J71" s="15">
         <v>5</v>
       </c>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15">
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15">
         <v>8</v>
       </c>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
       <c r="P71" s="15"/>
-      <c r="Q71" s="12">
-        <f t="shared" si="2"/>
-        <v>42488.607638888891</v>
-      </c>
-      <c r="R71" s="12">
-        <f t="shared" si="3"/>
-        <v>42488.60833333333</v>
-      </c>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
     </row>
     <row r="72" spans="1:18" ht="25">
-      <c r="A72" s="5">
+      <c r="A72" s="12">
+        <f>C72+D72</f>
+        <v>42488.611805555556</v>
+      </c>
+      <c r="B72" s="12">
+        <f>C72+E72</f>
+        <v>42488.612500000003</v>
+      </c>
+      <c r="C72" s="5">
         <v>42488</v>
       </c>
-      <c r="B72" s="10">
+      <c r="D72" s="10">
         <v>0.6118055555555556</v>
       </c>
-      <c r="C72" s="4">
+      <c r="E72" s="4">
         <v>0.61250000000000004</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15">
+      <c r="I72" s="15"/>
+      <c r="J72" s="15">
         <v>5</v>
       </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15">
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15">
         <v>8</v>
       </c>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
-      <c r="Q72" s="12">
-        <f t="shared" si="2"/>
-        <v>42488.611805555556</v>
-      </c>
-      <c r="R72" s="12">
-        <f t="shared" si="3"/>
-        <v>42488.612500000003</v>
-      </c>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
     </row>
     <row r="73" spans="1:18" ht="25">
-      <c r="A73" s="5">
+      <c r="A73" s="12">
+        <f>C73+D73</f>
+        <v>42488.642361111109</v>
+      </c>
+      <c r="B73" s="12">
+        <f>C73+E73</f>
+        <v>42488.649305555555</v>
+      </c>
+      <c r="C73" s="5">
         <v>42488</v>
       </c>
-      <c r="B73" s="10">
+      <c r="D73" s="10">
         <v>0.64236111111111116</v>
       </c>
-      <c r="C73" s="4">
+      <c r="E73" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15">
+      <c r="I73" s="15"/>
+      <c r="J73" s="15">
         <v>3</v>
       </c>
-      <c r="I73" s="15">
+      <c r="K73" s="15">
         <v>2</v>
       </c>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="15">
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15">
         <v>1</v>
       </c>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="12">
-        <f t="shared" si="2"/>
-        <v>42488.642361111109</v>
-      </c>
-      <c r="R73" s="12">
-        <f t="shared" si="3"/>
-        <v>42488.649305555555</v>
-      </c>
+      <c r="R73" s="15"/>
     </row>
     <row r="74" spans="1:18" ht="25">
-      <c r="A74" s="5">
+      <c r="A74" s="12">
+        <f>C74+D74</f>
+        <v>42488.677083333336</v>
+      </c>
+      <c r="B74" s="12">
+        <f>C74+E74</f>
+        <v>42488.722222222219</v>
+      </c>
+      <c r="C74" s="5">
         <v>42488</v>
       </c>
-      <c r="B74" s="10">
+      <c r="D74" s="10">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C74" s="4">
+      <c r="E74" s="4">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
       <c r="I74" s="15"/>
-      <c r="J74" s="15">
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15">
         <v>5</v>
       </c>
-      <c r="K74" s="15">
+      <c r="M74" s="15">
         <v>2</v>
       </c>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
       <c r="N74" s="15"/>
-      <c r="O74" s="15">
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15">
         <v>2</v>
       </c>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="12">
-        <f t="shared" si="2"/>
-        <v>42488.677083333336</v>
-      </c>
-      <c r="R74" s="12">
-        <f t="shared" si="3"/>
-        <v>42488.722222222219</v>
-      </c>
+      <c r="R74" s="15"/>
     </row>
     <row r="75" spans="1:18" ht="37">
-      <c r="A75" s="5">
+      <c r="A75" s="12">
+        <f>C75+D75</f>
+        <v>42488.739583333336</v>
+      </c>
+      <c r="B75" s="12">
+        <f>C75+E75</f>
+        <v>42488.826388888891</v>
+      </c>
+      <c r="C75" s="5">
         <v>42488</v>
       </c>
-      <c r="B75" s="10">
+      <c r="D75" s="10">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C75" s="4">
+      <c r="E75" s="4">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
       <c r="I75" s="15"/>
-      <c r="J75" s="15">
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15">
         <v>7</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
-      <c r="O75" s="15">
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15">
         <v>4</v>
       </c>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="12">
-        <f t="shared" si="2"/>
-        <v>42488.739583333336</v>
-      </c>
-      <c r="R75" s="12">
-        <f t="shared" si="3"/>
-        <v>42488.826388888891</v>
-      </c>
+      <c r="R75" s="15"/>
     </row>
     <row r="76" spans="1:18" ht="61">
-      <c r="A76" s="5">
+      <c r="A76" s="12">
+        <f>C76+D76</f>
+        <v>42488.881944444445</v>
+      </c>
+      <c r="B76" s="12">
+        <f>C76+E76</f>
+        <v>42488.923611111109</v>
+      </c>
+      <c r="C76" s="5">
         <v>42488</v>
       </c>
-      <c r="B76" s="10">
+      <c r="D76" s="10">
         <v>0.88194444444444442</v>
       </c>
-      <c r="C76" s="4">
+      <c r="E76" s="4">
         <v>0.92361111111111116</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
@@ -4321,254 +4345,254 @@
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
-      <c r="Q76" s="12">
-        <f t="shared" si="2"/>
-        <v>42488.881944444445</v>
-      </c>
-      <c r="R76" s="12">
-        <f t="shared" si="3"/>
-        <v>42488.923611111109</v>
-      </c>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
     </row>
     <row r="77" spans="1:18" ht="73">
-      <c r="A77" s="5">
+      <c r="A77" s="12">
+        <f>C77+D77</f>
+        <v>42489.354166666664</v>
+      </c>
+      <c r="B77" s="12">
+        <f>C77+E77</f>
+        <v>42489.395833333336</v>
+      </c>
+      <c r="C77" s="5">
         <v>42489</v>
       </c>
-      <c r="B77" s="10">
+      <c r="D77" s="10">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C77" s="4">
+      <c r="E77" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15">
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15">
         <v>5</v>
       </c>
-      <c r="J77" s="15">
+      <c r="L77" s="15">
         <v>10</v>
       </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
-      <c r="Q77" s="12">
-        <f t="shared" si="2"/>
-        <v>42489.354166666664</v>
-      </c>
-      <c r="R77" s="12">
-        <f t="shared" si="3"/>
-        <v>42489.395833333336</v>
-      </c>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
     </row>
     <row r="78" spans="1:18" ht="25">
-      <c r="A78" s="5">
+      <c r="A78" s="12">
+        <f>C78+D78</f>
+        <v>42489.4375</v>
+      </c>
+      <c r="B78" s="12">
+        <f>C78+E78</f>
+        <v>42489.458333333336</v>
+      </c>
+      <c r="C78" s="5">
         <v>42489</v>
       </c>
-      <c r="B78" s="10">
+      <c r="D78" s="10">
         <v>0.4375</v>
       </c>
-      <c r="C78" s="4">
+      <c r="E78" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15">
-        <v>5</v>
-      </c>
-      <c r="I78" s="15">
-        <v>5</v>
-      </c>
+      <c r="I78" s="15"/>
       <c r="J78" s="15">
         <v>5</v>
       </c>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
+      <c r="K78" s="15">
+        <v>5</v>
+      </c>
+      <c r="L78" s="15">
+        <v>5</v>
+      </c>
       <c r="M78" s="15"/>
-      <c r="N78" s="15">
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15">
         <v>8</v>
       </c>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="12">
-        <f t="shared" si="2"/>
-        <v>42489.4375</v>
-      </c>
-      <c r="R78" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+    </row>
+    <row r="79" spans="1:18" ht="97">
+      <c r="A79" s="12">
+        <f>C79+D79</f>
         <v>42489.458333333336</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="97">
-      <c r="A79" s="5">
+      <c r="B79" s="12">
+        <f>C79+E79</f>
+        <v>42489.635416666664</v>
+      </c>
+      <c r="C79" s="5">
         <v>42489</v>
       </c>
-      <c r="B79" s="10">
+      <c r="D79" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C79" s="4">
+      <c r="E79" s="4">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
       <c r="I79" s="15"/>
-      <c r="J79" s="15">
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15">
         <v>2</v>
       </c>
-      <c r="K79" s="15">
+      <c r="M79" s="15">
         <v>5</v>
       </c>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
       <c r="N79" s="15"/>
       <c r="O79" s="15"/>
-      <c r="P79" s="15">
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15">
         <v>2</v>
       </c>
-      <c r="Q79" s="12">
-        <f t="shared" si="2"/>
-        <v>42489.458333333336</v>
-      </c>
-      <c r="R79" s="12">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="80" spans="1:18" ht="37">
+      <c r="A80" s="12">
+        <f>C80+D80</f>
         <v>42489.635416666664</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="37">
-      <c r="A80" s="5">
+      <c r="B80" s="12">
+        <f>C80+E80</f>
+        <v>42489.729166666664</v>
+      </c>
+      <c r="C80" s="5">
         <v>42489</v>
       </c>
-      <c r="B80" s="10">
+      <c r="D80" s="10">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C80" s="4">
+      <c r="E80" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15">
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15">
         <v>2</v>
       </c>
-      <c r="J80" s="15">
+      <c r="L80" s="15">
         <v>2</v>
       </c>
-      <c r="K80" s="15">
+      <c r="M80" s="15">
         <v>4</v>
       </c>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
-      <c r="Q80" s="12">
-        <f t="shared" si="2"/>
-        <v>42489.635416666664</v>
-      </c>
-      <c r="R80" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="12">
+        <f>C81+D81</f>
         <v>42489.729166666664</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="5">
+      <c r="B81" s="12">
+        <f>C81+E81</f>
+        <v>42489.868055555555</v>
+      </c>
+      <c r="C81" s="5">
         <v>42489</v>
       </c>
-      <c r="B81" s="10">
+      <c r="D81" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C81" s="4">
+      <c r="E81" s="4">
         <v>0.86805555555555558</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="15">
-        <v>7</v>
-      </c>
+      <c r="K81" s="15"/>
       <c r="L81" s="15"/>
       <c r="M81" s="15">
+        <v>7</v>
+      </c>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15">
         <v>2</v>
       </c>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
       <c r="P81" s="15"/>
-      <c r="Q81" s="12">
-        <f t="shared" si="2"/>
-        <v>42489.729166666664</v>
-      </c>
-      <c r="R81" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+    </row>
+    <row r="82" spans="1:18" ht="61">
+      <c r="A82" s="12">
+        <f>C82+D82</f>
         <v>42489.868055555555</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="61">
-      <c r="A82" s="5">
+      <c r="B82" s="12">
+        <f>C82+E82</f>
+        <v>42489.90625</v>
+      </c>
+      <c r="C82" s="5">
         <v>42489</v>
       </c>
-      <c r="B82" s="10">
+      <c r="D82" s="10">
         <v>0.86805555555555558</v>
       </c>
-      <c r="C82" s="4">
+      <c r="E82" s="4">
         <v>0.90625</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
@@ -4577,670 +4601,670 @@
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
-      <c r="Q82" s="12">
-        <f t="shared" si="2"/>
-        <v>42489.868055555555</v>
-      </c>
-      <c r="R82" s="12">
-        <f t="shared" si="3"/>
-        <v>42489.90625</v>
-      </c>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
     </row>
     <row r="83" spans="1:18" ht="37">
-      <c r="A83" s="5">
+      <c r="A83" s="12">
+        <f>C83+D83</f>
+        <v>42489.920138888891</v>
+      </c>
+      <c r="B83" s="12">
+        <f>C83+E83</f>
+        <v>42489.999305555553</v>
+      </c>
+      <c r="C83" s="5">
         <v>42489</v>
       </c>
-      <c r="B83" s="10">
+      <c r="D83" s="10">
         <v>0.92013888888888884</v>
       </c>
-      <c r="C83" s="4">
+      <c r="E83" s="4">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15">
-        <v>2</v>
-      </c>
+      <c r="I83" s="15"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15">
+        <v>2</v>
+      </c>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15">
         <v>5</v>
       </c>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
       <c r="P83" s="15"/>
-      <c r="Q83" s="12">
-        <f t="shared" si="2"/>
-        <v>42489.920138888891</v>
-      </c>
-      <c r="R83" s="12">
-        <f t="shared" si="3"/>
-        <v>42489.999305555553</v>
-      </c>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
     </row>
     <row r="84" spans="1:18" ht="61">
-      <c r="A84" s="5">
+      <c r="A84" s="12">
+        <f>C84+D84</f>
         <v>42490</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="12">
+        <f>C84+E84</f>
+        <v>42490.027777777781</v>
+      </c>
+      <c r="C84" s="5">
+        <v>42490</v>
+      </c>
+      <c r="D84" s="10">
         <v>0</v>
       </c>
-      <c r="C84" s="4">
+      <c r="E84" s="4">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="15">
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15">
         <v>8</v>
       </c>
-      <c r="K84" s="15">
+      <c r="M84" s="15">
         <v>2</v>
       </c>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
       <c r="P84" s="15"/>
-      <c r="Q84" s="12">
-        <f t="shared" si="2"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+    </row>
+    <row r="85" spans="1:18" ht="25">
+      <c r="A85" s="12">
+        <f>C85+D85</f>
+        <v>42490.392361111109</v>
+      </c>
+      <c r="B85" s="12">
+        <f>C85+E85</f>
+        <v>42490.399305555555</v>
+      </c>
+      <c r="C85" s="5">
         <v>42490</v>
       </c>
-      <c r="R84" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.027777777781</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="25">
-      <c r="A85" s="5">
-        <v>42490</v>
-      </c>
-      <c r="B85" s="10">
+      <c r="D85" s="10">
         <v>0.3923611111111111</v>
       </c>
-      <c r="C85" s="4">
+      <c r="E85" s="4">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15">
+      <c r="I85" s="15"/>
+      <c r="J85" s="15">
         <v>4</v>
       </c>
-      <c r="I85" s="15">
+      <c r="K85" s="15">
         <v>4</v>
       </c>
-      <c r="J85" s="15">
+      <c r="L85" s="15">
         <v>2</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
       <c r="P85" s="15"/>
-      <c r="Q85" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.392361111109</v>
-      </c>
-      <c r="R85" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.399305555555</v>
-      </c>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
     </row>
     <row r="86" spans="1:18" ht="37">
-      <c r="A86" s="5">
+      <c r="A86" s="12">
+        <f>C86+D86</f>
+        <v>42490.400000000001</v>
+      </c>
+      <c r="B86" s="12">
+        <f>C86+E86</f>
+        <v>42490.427083333336</v>
+      </c>
+      <c r="C86" s="5">
         <v>42490</v>
       </c>
-      <c r="B86" s="10">
+      <c r="D86" s="10">
         <v>0.4</v>
       </c>
-      <c r="C86" s="6">
+      <c r="E86" s="6">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15">
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15">
         <v>5</v>
       </c>
-      <c r="J86" s="15">
+      <c r="L86" s="15">
         <v>5</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
-      <c r="Q86" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.400000000001</v>
-      </c>
-      <c r="R86" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.427083333336</v>
-      </c>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
     </row>
     <row r="87" spans="1:18" ht="49">
-      <c r="A87" s="5">
+      <c r="A87" s="12">
+        <f>C87+D87</f>
+        <v>42490.427777777775</v>
+      </c>
+      <c r="B87" s="12">
+        <f>C87+E87</f>
+        <v>42490.458333333336</v>
+      </c>
+      <c r="C87" s="5">
         <v>42490</v>
       </c>
-      <c r="B87" s="10">
+      <c r="D87" s="10">
         <v>0.42777777777777776</v>
       </c>
-      <c r="C87" s="4">
+      <c r="E87" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="15">
-        <v>5</v>
-      </c>
+      <c r="K87" s="15"/>
       <c r="L87" s="15"/>
       <c r="M87" s="15">
+        <v>5</v>
+      </c>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15">
         <v>2</v>
       </c>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
       <c r="P87" s="15"/>
-      <c r="Q87" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.427777777775</v>
-      </c>
-      <c r="R87" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.458333333336</v>
-      </c>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
     </row>
     <row r="88" spans="1:18" ht="73">
-      <c r="A88" s="5">
+      <c r="A88" s="12">
+        <f>C88+D88</f>
+        <v>42490.459027777775</v>
+      </c>
+      <c r="B88" s="12">
+        <f>C88+E88</f>
+        <v>42490.5</v>
+      </c>
+      <c r="C88" s="5">
         <v>42490</v>
       </c>
-      <c r="B88" s="10">
+      <c r="D88" s="10">
         <v>0.45902777777777776</v>
       </c>
-      <c r="C88" s="4">
+      <c r="E88" s="4">
         <v>0.5</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="15">
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15">
         <v>4</v>
       </c>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="15">
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15">
         <v>3</v>
       </c>
-      <c r="Q88" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.459027777775</v>
-      </c>
-      <c r="R88" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.5</v>
-      </c>
     </row>
     <row r="89" spans="1:18" ht="25">
-      <c r="A89" s="5">
+      <c r="A89" s="12">
+        <f>C89+D89</f>
+        <v>42490.500694444447</v>
+      </c>
+      <c r="B89" s="12">
+        <f>C89+E89</f>
+        <v>42490.611111111109</v>
+      </c>
+      <c r="C89" s="5">
         <v>42490</v>
       </c>
-      <c r="B89" s="10">
+      <c r="D89" s="10">
         <v>0.50069444444444444</v>
       </c>
-      <c r="C89" s="4">
+      <c r="E89" s="4">
         <v>0.61111111111111116</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="15">
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15">
         <v>4</v>
       </c>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="15">
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15">
         <v>3</v>
       </c>
-      <c r="Q89" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.500694444447</v>
-      </c>
-      <c r="R89" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.611111111109</v>
-      </c>
     </row>
     <row r="90" spans="1:18" ht="73">
-      <c r="A90" s="5">
+      <c r="A90" s="12">
+        <f>C90+D90</f>
+        <v>42490.611805555556</v>
+      </c>
+      <c r="B90" s="12">
+        <f>C90+E90</f>
+        <v>42490.645833333336</v>
+      </c>
+      <c r="C90" s="5">
         <v>42490</v>
       </c>
-      <c r="B90" s="10">
+      <c r="D90" s="10">
         <v>0.6118055555555556</v>
       </c>
-      <c r="C90" s="4">
+      <c r="E90" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="15">
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15">
         <v>4</v>
       </c>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
-      <c r="Q90" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.611805555556</v>
-      </c>
-      <c r="R90" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.645833333336</v>
-      </c>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="5">
+      <c r="A91" s="12">
+        <f>C91+D91</f>
+        <v>42490.652777777781</v>
+      </c>
+      <c r="B91" s="12">
+        <f>C91+E91</f>
+        <v>42490.791666666664</v>
+      </c>
+      <c r="C91" s="5">
         <v>42490</v>
       </c>
-      <c r="B91" s="10">
+      <c r="D91" s="10">
         <v>0.65277777777777779</v>
       </c>
-      <c r="C91" s="4">
+      <c r="E91" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
       <c r="I91" s="15"/>
-      <c r="J91" s="15">
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15">
         <v>4</v>
       </c>
-      <c r="K91" s="15">
+      <c r="M91" s="15">
         <v>2</v>
       </c>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="15">
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15">
         <v>2</v>
       </c>
-      <c r="P91" s="15">
+      <c r="R91" s="15">
         <v>2</v>
       </c>
-      <c r="Q91" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.652777777781</v>
-      </c>
-      <c r="R91" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.791666666664</v>
-      </c>
     </row>
     <row r="92" spans="1:18" ht="25">
-      <c r="A92" s="5">
+      <c r="A92" s="12">
+        <f>C92+D92</f>
+        <v>42490.792361111111</v>
+      </c>
+      <c r="B92" s="12">
+        <f>C92+E92</f>
+        <v>42490.927083333336</v>
+      </c>
+      <c r="C92" s="5">
         <v>42490</v>
       </c>
-      <c r="B92" s="10">
+      <c r="D92" s="10">
         <v>0.79236111111111107</v>
       </c>
-      <c r="C92" s="4">
+      <c r="E92" s="4">
         <v>0.92708333333333337</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
       <c r="I92" s="15"/>
-      <c r="J92" s="15">
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15">
         <v>10</v>
       </c>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15"/>
-      <c r="Q92" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.792361111111</v>
-      </c>
-      <c r="R92" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.927083333336</v>
-      </c>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
     </row>
     <row r="93" spans="1:18" ht="25">
-      <c r="A93" s="5">
+      <c r="A93" s="12">
+        <f>C93+D93</f>
+        <v>42490.854166666664</v>
+      </c>
+      <c r="B93" s="12">
+        <f>C93+E93</f>
+        <v>42490.864583333336</v>
+      </c>
+      <c r="C93" s="5">
         <v>42490</v>
       </c>
-      <c r="B93" s="10">
+      <c r="D93" s="10">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C93" s="4">
+      <c r="E93" s="4">
         <v>0.86458333333333337</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15">
+      <c r="I93" s="15"/>
+      <c r="J93" s="15">
         <v>4</v>
       </c>
-      <c r="I93" s="15">
+      <c r="K93" s="15">
         <v>6</v>
       </c>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
       <c r="P93" s="15"/>
-      <c r="Q93" s="12">
-        <f t="shared" si="2"/>
-        <v>42490.854166666664</v>
-      </c>
-      <c r="R93" s="12">
-        <f t="shared" si="3"/>
-        <v>42490.864583333336</v>
-      </c>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
     </row>
     <row r="94" spans="1:18" ht="37">
-      <c r="A94" s="5">
+      <c r="A94" s="12">
+        <f>C94+D94</f>
+        <v>42491.458333333336</v>
+      </c>
+      <c r="B94" s="12">
+        <f>C94+E94</f>
+        <v>42491.791666666664</v>
+      </c>
+      <c r="C94" s="5">
         <v>42491</v>
       </c>
-      <c r="B94" s="10">
+      <c r="D94" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C94" s="4">
+      <c r="E94" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="15">
-        <v>4</v>
-      </c>
+      <c r="K94" s="15"/>
       <c r="L94" s="15"/>
       <c r="M94" s="15">
+        <v>4</v>
+      </c>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15">
         <v>2</v>
       </c>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
       <c r="P94" s="15"/>
-      <c r="Q94" s="12">
-        <f t="shared" si="2"/>
-        <v>42491.458333333336</v>
-      </c>
-      <c r="R94" s="12">
-        <f t="shared" si="3"/>
-        <v>42491.791666666664</v>
-      </c>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
     </row>
     <row r="95" spans="1:18" ht="25">
-      <c r="A95" s="5">
+      <c r="A95" s="12">
+        <f>C95+D95</f>
+        <v>42491.576388888891</v>
+      </c>
+      <c r="B95" s="12">
+        <f>C95+E95</f>
+        <v>42491.565972222219</v>
+      </c>
+      <c r="C95" s="5">
         <v>42491</v>
       </c>
-      <c r="B95" s="10">
+      <c r="D95" s="10">
         <v>0.57638888888888884</v>
       </c>
-      <c r="C95" s="4">
+      <c r="E95" s="4">
         <v>0.56597222222222221</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
-      <c r="M95" s="15">
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15">
         <v>8</v>
       </c>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
       <c r="P95" s="15"/>
-      <c r="Q95" s="12">
-        <f t="shared" si="2"/>
-        <v>42491.576388888891</v>
-      </c>
-      <c r="R95" s="12">
-        <f t="shared" si="3"/>
-        <v>42491.565972222219</v>
-      </c>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
     </row>
     <row r="96" spans="1:18" ht="49">
-      <c r="A96" s="5">
+      <c r="A96" s="12">
+        <f>C96+D96</f>
+        <v>42491.631249999999</v>
+      </c>
+      <c r="B96" s="12">
+        <f>C96+E96</f>
+        <v>42491.631944444445</v>
+      </c>
+      <c r="C96" s="5">
         <v>42491</v>
       </c>
-      <c r="B96" s="10">
+      <c r="D96" s="10">
         <v>0.63124999999999998</v>
       </c>
-      <c r="C96" s="4">
+      <c r="E96" s="4">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="15">
-        <v>10</v>
-      </c>
-      <c r="L96" s="15">
-        <v>10</v>
-      </c>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
       <c r="M96" s="15">
         <v>10</v>
       </c>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
+      <c r="N96" s="15">
+        <v>10</v>
+      </c>
+      <c r="O96" s="15">
+        <v>10</v>
+      </c>
       <c r="P96" s="15"/>
-      <c r="Q96" s="12">
-        <f t="shared" si="2"/>
-        <v>42491.631249999999</v>
-      </c>
-      <c r="R96" s="12">
-        <f t="shared" si="3"/>
-        <v>42491.631944444445</v>
-      </c>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
     </row>
     <row r="97" spans="1:18" ht="97">
-      <c r="A97" s="5">
+      <c r="A97" s="12">
+        <f>C97+D97</f>
+        <v>42491.711805555555</v>
+      </c>
+      <c r="B97" s="12">
+        <f>C97+E97</f>
+        <v>42491.71875</v>
+      </c>
+      <c r="C97" s="5">
         <v>42491</v>
       </c>
-      <c r="B97" s="10">
+      <c r="D97" s="10">
         <v>0.71180555555555558</v>
       </c>
-      <c r="C97" s="4">
+      <c r="E97" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15">
+      <c r="I97" s="15"/>
+      <c r="J97" s="15">
         <v>2</v>
       </c>
-      <c r="I97" s="15">
+      <c r="K97" s="15">
         <v>2</v>
       </c>
-      <c r="J97" s="15">
+      <c r="L97" s="15">
         <v>5</v>
       </c>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
       <c r="P97" s="15"/>
-      <c r="Q97" s="12">
-        <f t="shared" si="2"/>
-        <v>42491.711805555555</v>
-      </c>
-      <c r="R97" s="12">
-        <f t="shared" si="3"/>
-        <v>42491.71875</v>
-      </c>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
     </row>
     <row r="98" spans="1:18" ht="61">
-      <c r="A98" s="5">
+      <c r="A98" s="12">
+        <f>C98+D98</f>
+        <v>42491.857638888891</v>
+      </c>
+      <c r="B98" s="12">
+        <f>C98+E98</f>
+        <v>42491.899305555555</v>
+      </c>
+      <c r="C98" s="5">
         <v>42491</v>
       </c>
-      <c r="B98" s="10">
+      <c r="D98" s="10">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C98" s="4">
+      <c r="E98" s="4">
         <v>0.89930555555555558</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
@@ -5249,682 +5273,682 @@
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
       <c r="P98" s="15"/>
-      <c r="Q98" s="12">
-        <f t="shared" si="2"/>
-        <v>42491.857638888891</v>
-      </c>
-      <c r="R98" s="12">
-        <f t="shared" si="3"/>
-        <v>42491.899305555555</v>
-      </c>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
     </row>
     <row r="99" spans="1:18" ht="25">
-      <c r="A99" s="5">
+      <c r="A99" s="12">
+        <f>C99+D99</f>
+        <v>42492.284722222219</v>
+      </c>
+      <c r="B99" s="12">
+        <f>C99+E99</f>
+        <v>42492.291666666664</v>
+      </c>
+      <c r="C99" s="5">
         <v>42492</v>
       </c>
-      <c r="B99" s="10">
+      <c r="D99" s="10">
         <v>0.28472222222222221</v>
       </c>
-      <c r="C99" s="4">
+      <c r="E99" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="15">
-        <v>2</v>
-      </c>
+      <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="15">
         <v>2</v>
       </c>
       <c r="N99" s="15"/>
       <c r="O99" s="15">
+        <v>2</v>
+      </c>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15">
         <v>8</v>
       </c>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.284722222219</v>
-      </c>
-      <c r="R99" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.291666666664</v>
-      </c>
+      <c r="R99" s="15"/>
     </row>
     <row r="100" spans="1:18" ht="25">
-      <c r="A100" s="5">
+      <c r="A100" s="12">
+        <f>C100+D100</f>
+        <v>42492.361111111109</v>
+      </c>
+      <c r="B100" s="12">
+        <f>C100+E100</f>
+        <v>42492.363194444442</v>
+      </c>
+      <c r="C100" s="5">
         <v>42492</v>
       </c>
-      <c r="B100" s="10">
+      <c r="D100" s="10">
         <v>0.3611111111111111</v>
       </c>
-      <c r="C100" s="4">
+      <c r="E100" s="4">
         <v>0.36319444444444443</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="15">
-        <v>3</v>
-      </c>
+      <c r="K100" s="15"/>
       <c r="L100" s="15"/>
       <c r="M100" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N100" s="15"/>
       <c r="O100" s="15">
         <v>6</v>
       </c>
       <c r="P100" s="15"/>
-      <c r="Q100" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.361111111109</v>
-      </c>
-      <c r="R100" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.363194444442</v>
-      </c>
+      <c r="Q100" s="15">
+        <v>6</v>
+      </c>
+      <c r="R100" s="15"/>
     </row>
     <row r="101" spans="1:18" ht="25">
-      <c r="A101" s="5">
+      <c r="A101" s="12">
+        <f>C101+D101</f>
+        <v>42492.375</v>
+      </c>
+      <c r="B101" s="12">
+        <f>C101+E101</f>
+        <v>42492.40625</v>
+      </c>
+      <c r="C101" s="5">
         <v>42492</v>
       </c>
-      <c r="B101" s="10">
+      <c r="D101" s="10">
         <v>0.375</v>
       </c>
-      <c r="C101" s="4">
+      <c r="E101" s="4">
         <v>0.40625</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="15">
-        <v>2</v>
-      </c>
+      <c r="K101" s="15"/>
       <c r="L101" s="15"/>
       <c r="M101" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N101" s="15"/>
       <c r="O101" s="15">
+        <v>6</v>
+      </c>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15">
         <v>4</v>
       </c>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.375</v>
-      </c>
-      <c r="R101" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.40625</v>
-      </c>
+      <c r="R101" s="15"/>
     </row>
     <row r="102" spans="1:18" ht="25">
-      <c r="A102" s="5">
+      <c r="A102" s="12">
+        <f>C102+D102</f>
+        <v>42492.416666666664</v>
+      </c>
+      <c r="B102" s="12">
+        <f>C102+E102</f>
+        <v>42492.486111111109</v>
+      </c>
+      <c r="C102" s="5">
         <v>42492</v>
       </c>
-      <c r="B102" s="10">
+      <c r="D102" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C102" s="4">
+      <c r="E102" s="4">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
       <c r="I102" s="15"/>
-      <c r="J102" s="15">
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15">
         <v>4</v>
       </c>
-      <c r="K102" s="15">
+      <c r="M102" s="15">
         <v>4</v>
-      </c>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15">
-        <v>2</v>
       </c>
       <c r="N102" s="15"/>
       <c r="O102" s="15">
         <v>2</v>
       </c>
       <c r="P102" s="15"/>
-      <c r="Q102" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.416666666664</v>
-      </c>
-      <c r="R102" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.486111111109</v>
-      </c>
+      <c r="Q102" s="15">
+        <v>2</v>
+      </c>
+      <c r="R102" s="15"/>
     </row>
     <row r="103" spans="1:18" ht="85">
-      <c r="A103" s="5">
+      <c r="A103" s="12">
+        <f>C103+D103</f>
+        <v>42492.5</v>
+      </c>
+      <c r="B103" s="12">
+        <f>C103+E103</f>
+        <v>42492.506944444445</v>
+      </c>
+      <c r="C103" s="5">
         <v>42492</v>
       </c>
-      <c r="B103" s="10">
+      <c r="D103" s="10">
         <v>0.5</v>
       </c>
-      <c r="C103" s="4">
+      <c r="E103" s="4">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
-      <c r="K103" s="15">
-        <v>4</v>
-      </c>
+      <c r="K103" s="15"/>
       <c r="L103" s="15"/>
       <c r="M103" s="15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N103" s="15"/>
       <c r="O103" s="15">
+        <v>10</v>
+      </c>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15">
         <v>2</v>
       </c>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.5</v>
-      </c>
-      <c r="R103" s="12">
-        <f t="shared" si="3"/>
+      <c r="R103" s="15"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="12">
+        <f>C104+D104</f>
         <v>42492.506944444445</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="5">
+      <c r="B104" s="12">
+        <f>C104+E104</f>
+        <v>42492.554166666669</v>
+      </c>
+      <c r="C104" s="5">
         <v>42492</v>
       </c>
-      <c r="B104" s="10">
+      <c r="D104" s="10">
         <v>0.50694444444444442</v>
       </c>
-      <c r="C104" s="4">
+      <c r="E104" s="4">
         <v>0.5541666666666667</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="15">
-        <v>4</v>
-      </c>
+      <c r="K104" s="15"/>
       <c r="L104" s="15"/>
       <c r="M104" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N104" s="15"/>
       <c r="O104" s="15">
         <v>2</v>
       </c>
       <c r="P104" s="15"/>
-      <c r="Q104" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.506944444445</v>
-      </c>
-      <c r="R104" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.554166666669</v>
-      </c>
+      <c r="Q104" s="15">
+        <v>2</v>
+      </c>
+      <c r="R104" s="15"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="5">
+      <c r="A105" s="12">
+        <f>C105+D105</f>
+        <v>42492.554861111108</v>
+      </c>
+      <c r="B105" s="12">
+        <f>C105+E105</f>
+        <v>42492.555555555555</v>
+      </c>
+      <c r="C105" s="5">
         <v>42492</v>
       </c>
-      <c r="B105" s="10">
+      <c r="D105" s="10">
         <v>0.55486111111111114</v>
       </c>
-      <c r="C105" s="4">
+      <c r="E105" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15">
+      <c r="I105" s="15"/>
+      <c r="J105" s="15">
         <v>8</v>
       </c>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15">
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15">
         <v>3</v>
       </c>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
       <c r="N105" s="15"/>
-      <c r="O105" s="15">
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15">
         <v>2</v>
       </c>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.554861111108</v>
-      </c>
-      <c r="R105" s="12">
-        <f t="shared" si="3"/>
+      <c r="R105" s="15"/>
+    </row>
+    <row r="106" spans="1:18" ht="25">
+      <c r="A106" s="12">
+        <f>C106+D106</f>
         <v>42492.555555555555</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" ht="25">
-      <c r="A106" s="5">
+      <c r="B106" s="12">
+        <f>C106+E106</f>
+        <v>42492.556250000001</v>
+      </c>
+      <c r="C106" s="5">
         <v>42492</v>
       </c>
-      <c r="B106" s="10">
+      <c r="D106" s="10">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C106" s="4">
+      <c r="E106" s="4">
         <v>0.55625000000000002</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15">
+      <c r="I106" s="15"/>
+      <c r="J106" s="15">
         <v>5</v>
       </c>
-      <c r="I106" s="15">
+      <c r="K106" s="15">
         <v>5</v>
       </c>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
-      <c r="O106" s="15">
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15">
         <v>2</v>
       </c>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.555555555555</v>
-      </c>
-      <c r="R106" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.556250000001</v>
-      </c>
+      <c r="R106" s="15"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="5">
+      <c r="A107" s="12">
+        <f>C107+D107</f>
+        <v>42492.568055555559</v>
+      </c>
+      <c r="B107" s="12">
+        <f>C107+E107</f>
+        <v>42492.576388888891</v>
+      </c>
+      <c r="C107" s="5">
         <v>42492</v>
       </c>
-      <c r="B107" s="10">
+      <c r="D107" s="10">
         <v>0.56805555555555554</v>
       </c>
-      <c r="C107" s="4">
+      <c r="E107" s="4">
         <v>0.57638888888888884</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
-      <c r="M107" s="15">
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15">
         <v>8</v>
       </c>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15"/>
       <c r="P107" s="15"/>
-      <c r="Q107" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.568055555559</v>
-      </c>
-      <c r="R107" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
+    </row>
+    <row r="108" spans="1:18" ht="49">
+      <c r="A108" s="12">
+        <f>C108+D108</f>
+        <v>42492.575694444444</v>
+      </c>
+      <c r="B108" s="12">
+        <f>C108+E108</f>
         <v>42492.576388888891</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" ht="49">
-      <c r="A108" s="5">
+      <c r="C108" s="5">
         <v>42492</v>
       </c>
-      <c r="B108" s="10">
+      <c r="D108" s="10">
         <v>0.5756944444444444</v>
       </c>
-      <c r="C108" s="4">
+      <c r="E108" s="4">
         <v>0.57638888888888884</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15">
+      <c r="I108" s="15"/>
+      <c r="J108" s="15">
         <v>5</v>
       </c>
-      <c r="I108" s="15">
+      <c r="K108" s="15">
         <v>5</v>
       </c>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
       <c r="P108" s="15"/>
-      <c r="Q108" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.575694444444</v>
-      </c>
-      <c r="R108" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.576388888891</v>
-      </c>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
     </row>
     <row r="109" spans="1:18" ht="121">
-      <c r="A109" s="5">
+      <c r="A109" s="12">
+        <f>C109+D109</f>
+        <v>42492.583333333336</v>
+      </c>
+      <c r="B109" s="12">
+        <f>C109+E109</f>
+        <v>42492.590277777781</v>
+      </c>
+      <c r="C109" s="5">
         <v>42492</v>
       </c>
-      <c r="B109" s="10">
+      <c r="D109" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C109" s="4">
+      <c r="E109" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15">
+      <c r="I109" s="15"/>
+      <c r="J109" s="15">
         <v>3</v>
       </c>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
-      <c r="M109" s="15">
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15">
         <v>9</v>
       </c>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
       <c r="P109" s="15"/>
-      <c r="Q109" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.583333333336</v>
-      </c>
-      <c r="R109" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.590277777781</v>
-      </c>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
     </row>
     <row r="110" spans="1:18" ht="25">
-      <c r="A110" s="5">
+      <c r="A110" s="12">
+        <f>C110+D110</f>
+        <v>42492.59097222222</v>
+      </c>
+      <c r="B110" s="12">
+        <f>C110+E110</f>
+        <v>42492.684027777781</v>
+      </c>
+      <c r="C110" s="5">
         <v>42492</v>
       </c>
-      <c r="B110" s="10">
+      <c r="D110" s="10">
         <v>0.59097222222222223</v>
       </c>
-      <c r="C110" s="4">
+      <c r="E110" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="15">
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15">
         <v>5</v>
       </c>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
       <c r="P110" s="15"/>
-      <c r="Q110" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.59097222222</v>
-      </c>
-      <c r="R110" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.684027777781</v>
-      </c>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
     </row>
     <row r="111" spans="1:18" ht="25">
-      <c r="A111" s="5">
+      <c r="A111" s="12">
+        <f>C111+D111</f>
+        <v>42492.6875</v>
+      </c>
+      <c r="B111" s="12">
+        <f>C111+E111</f>
+        <v>42492.690972222219</v>
+      </c>
+      <c r="C111" s="5">
         <v>42492</v>
       </c>
-      <c r="B111" s="10">
+      <c r="D111" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C111" s="4">
+      <c r="E111" s="4">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15">
-        <v>3</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15">
         <v>3</v>
       </c>
       <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
+      <c r="L111" s="15">
+        <v>3</v>
+      </c>
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
       <c r="P111" s="15"/>
-      <c r="Q111" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.6875</v>
-      </c>
-      <c r="R111" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.690972222219</v>
-      </c>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
     </row>
     <row r="112" spans="1:18" ht="61">
-      <c r="A112" s="5">
+      <c r="A112" s="12">
+        <f>C112+D112</f>
+        <v>42492.701388888891</v>
+      </c>
+      <c r="B112" s="12">
+        <f>C112+E112</f>
+        <v>42492.711805555555</v>
+      </c>
+      <c r="C112" s="5">
         <v>42492</v>
       </c>
-      <c r="B112" s="10">
+      <c r="D112" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C112" s="4">
+      <c r="E112" s="4">
         <v>0.71180555555555558</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
       <c r="I112" s="15"/>
-      <c r="J112" s="15">
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15">
         <v>5</v>
       </c>
-      <c r="K112" s="15">
+      <c r="M112" s="15">
         <v>2</v>
       </c>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
       <c r="P112" s="15"/>
-      <c r="Q112" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.701388888891</v>
-      </c>
-      <c r="R112" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.711805555555</v>
-      </c>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="5">
+      <c r="A113" s="12">
+        <f>C113+D113</f>
+        <v>42492.75</v>
+      </c>
+      <c r="B113" s="12">
+        <f>C113+E113</f>
+        <v>42492.819444444445</v>
+      </c>
+      <c r="C113" s="5">
         <v>42492</v>
       </c>
-      <c r="B113" s="10">
+      <c r="D113" s="10">
         <v>0.75</v>
       </c>
-      <c r="C113" s="4">
+      <c r="E113" s="4">
         <v>0.81944444444444442</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15">
-        <v>2</v>
-      </c>
-      <c r="J113" s="15">
-        <v>8</v>
-      </c>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
       <c r="K113" s="15">
         <v>2</v>
       </c>
-      <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
+      <c r="L113" s="15">
+        <v>8</v>
+      </c>
+      <c r="M113" s="15">
+        <v>2</v>
+      </c>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
       <c r="P113" s="15"/>
-      <c r="Q113" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.75</v>
-      </c>
-      <c r="R113" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.819444444445</v>
-      </c>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
     </row>
     <row r="114" spans="1:18" ht="61">
-      <c r="A114" s="5">
+      <c r="A114" s="12">
+        <f>C114+D114</f>
+        <v>42492.85833333333</v>
+      </c>
+      <c r="B114" s="12">
+        <f>C114+E114</f>
+        <v>42492.883333333331</v>
+      </c>
+      <c r="C114" s="5">
         <v>42492</v>
       </c>
-      <c r="B114" s="10">
+      <c r="D114" s="10">
         <v>0.85833333333333328</v>
       </c>
-      <c r="C114" s="4">
+      <c r="E114" s="4">
         <v>0.8833333333333333</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
@@ -5933,596 +5957,596 @@
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
       <c r="P114" s="15"/>
-      <c r="Q114" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.85833333333</v>
-      </c>
-      <c r="R114" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.883333333331</v>
-      </c>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
     </row>
     <row r="115" spans="1:18" ht="37">
-      <c r="A115" s="5">
+      <c r="A115" s="12">
+        <f>C115+D115</f>
+        <v>42492.875</v>
+      </c>
+      <c r="B115" s="12">
+        <f>C115+E115</f>
+        <v>42492.888888888891</v>
+      </c>
+      <c r="C115" s="5">
         <v>42492</v>
       </c>
-      <c r="B115" s="10">
+      <c r="D115" s="10">
         <v>0.875</v>
       </c>
-      <c r="C115" s="4">
+      <c r="E115" s="4">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15">
+      <c r="I115" s="15"/>
+      <c r="J115" s="15">
         <v>2</v>
       </c>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15">
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15">
         <v>3</v>
       </c>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
       <c r="P115" s="15"/>
-      <c r="Q115" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.875</v>
-      </c>
-      <c r="R115" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.888888888891</v>
-      </c>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="5">
+      <c r="A116" s="12">
+        <f>C116+D116</f>
+        <v>42492.88958333333</v>
+      </c>
+      <c r="B116" s="12">
+        <f>C116+E116</f>
+        <v>42492.916666666664</v>
+      </c>
+      <c r="C116" s="5">
         <v>42492</v>
       </c>
-      <c r="B116" s="10">
+      <c r="D116" s="10">
         <v>0.88958333333333328</v>
       </c>
-      <c r="C116" s="4">
+      <c r="E116" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
       <c r="I116" s="15"/>
-      <c r="J116" s="15">
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15">
         <v>3</v>
       </c>
-      <c r="K116" s="15">
+      <c r="M116" s="15">
         <v>1</v>
       </c>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
       <c r="P116" s="15"/>
-      <c r="Q116" s="12">
-        <f t="shared" si="2"/>
-        <v>42492.88958333333</v>
-      </c>
-      <c r="R116" s="12">
-        <f t="shared" si="3"/>
-        <v>42492.916666666664</v>
-      </c>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="15"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="5">
+      <c r="A117" s="12">
+        <f>C117+D117</f>
+        <v>42493.333333333336</v>
+      </c>
+      <c r="B117" s="12">
+        <f>C117+E117</f>
+        <v>42493.336805555555</v>
+      </c>
+      <c r="C117" s="5">
         <v>42493</v>
       </c>
-      <c r="B117" s="10">
+      <c r="D117" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C117" s="4">
+      <c r="E117" s="4">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
       <c r="I117" s="15"/>
-      <c r="J117" s="15">
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15">
         <v>2</v>
       </c>
-      <c r="K117" s="15">
+      <c r="M117" s="15">
         <v>2</v>
       </c>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
       <c r="N117" s="15"/>
-      <c r="O117" s="15">
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15">
         <v>10</v>
       </c>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.333333333336</v>
-      </c>
-      <c r="R117" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.336805555555</v>
-      </c>
+      <c r="R117" s="15"/>
     </row>
     <row r="118" spans="1:18" ht="25">
-      <c r="A118" s="5">
+      <c r="A118" s="12">
+        <f>C118+D118</f>
+        <v>42493.354166666664</v>
+      </c>
+      <c r="B118" s="12">
+        <f>C118+E118</f>
+        <v>42493.40625</v>
+      </c>
+      <c r="C118" s="5">
         <v>42493</v>
       </c>
-      <c r="B118" s="10">
+      <c r="D118" s="10">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C118" s="4">
+      <c r="E118" s="4">
         <v>0.40625</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
       <c r="I118" s="15"/>
-      <c r="J118" s="15">
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15">
         <v>3</v>
       </c>
-      <c r="K118" s="15">
+      <c r="M118" s="15">
         <v>5</v>
       </c>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
       <c r="N118" s="15"/>
-      <c r="O118" s="15">
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15">
         <v>7</v>
       </c>
-      <c r="P118" s="15">
+      <c r="R118" s="15">
         <v>4</v>
       </c>
-      <c r="Q118" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.354166666664</v>
-      </c>
-      <c r="R118" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.40625</v>
-      </c>
     </row>
     <row r="119" spans="1:18" ht="37">
-      <c r="A119" s="5">
+      <c r="A119" s="12">
+        <f>C119+D119</f>
+        <v>42493.406944444447</v>
+      </c>
+      <c r="B119" s="12">
+        <f>C119+E119</f>
+        <v>42493.434027777781</v>
+      </c>
+      <c r="C119" s="5">
         <v>42493</v>
       </c>
-      <c r="B119" s="10">
+      <c r="D119" s="10">
         <v>0.40694444444444444</v>
       </c>
-      <c r="C119" s="4">
+      <c r="E119" s="4">
         <v>0.43402777777777779</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2"/>
+      <c r="H119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
-      <c r="K119" s="15">
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15">
         <v>8</v>
       </c>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
       <c r="N119" s="15"/>
-      <c r="O119" s="15">
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15">
         <v>6</v>
       </c>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.406944444447</v>
-      </c>
-      <c r="R119" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.434027777781</v>
-      </c>
+      <c r="R119" s="15"/>
     </row>
     <row r="120" spans="1:18" ht="25">
-      <c r="A120" s="5">
+      <c r="A120" s="12">
+        <f>C120+D120</f>
+        <v>42493.4375</v>
+      </c>
+      <c r="B120" s="12">
+        <f>C120+E120</f>
+        <v>42493.479166666664</v>
+      </c>
+      <c r="C120" s="5">
         <v>42493</v>
       </c>
-      <c r="B120" s="10">
+      <c r="D120" s="10">
         <v>0.4375</v>
       </c>
-      <c r="C120" s="4">
+      <c r="E120" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
       <c r="I120" s="15"/>
-      <c r="J120" s="15">
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15">
         <v>6</v>
       </c>
-      <c r="K120" s="15">
+      <c r="M120" s="15">
         <v>2</v>
       </c>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
       <c r="N120" s="15"/>
-      <c r="O120" s="15">
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15">
         <v>6</v>
       </c>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.4375</v>
-      </c>
-      <c r="R120" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.479166666664</v>
-      </c>
+      <c r="R120" s="15"/>
     </row>
     <row r="121" spans="1:18" ht="25">
-      <c r="A121" s="5">
+      <c r="A121" s="12">
+        <f>C121+D121</f>
+        <v>42493.489583333336</v>
+      </c>
+      <c r="B121" s="12">
+        <f>C121+E121</f>
+        <v>42493.666666666664</v>
+      </c>
+      <c r="C121" s="5">
         <v>42493</v>
       </c>
-      <c r="B121" s="10">
+      <c r="D121" s="10">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C121" s="4">
+      <c r="E121" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
-      <c r="K121" s="15">
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15">
         <v>8</v>
       </c>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
       <c r="N121" s="15"/>
-      <c r="O121" s="15">
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15">
         <v>6</v>
       </c>
-      <c r="P121" s="15"/>
-      <c r="Q121" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.489583333336</v>
-      </c>
-      <c r="R121" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.666666666664</v>
-      </c>
+      <c r="R121" s="15"/>
     </row>
     <row r="122" spans="1:18" ht="61">
-      <c r="A122" s="5">
+      <c r="A122" s="12">
+        <f>C122+D122</f>
+        <v>42493.5</v>
+      </c>
+      <c r="B122" s="12">
+        <f>C122+E122</f>
+        <v>42493.503472222219</v>
+      </c>
+      <c r="C122" s="5">
         <v>42493</v>
       </c>
-      <c r="B122" s="10">
+      <c r="D122" s="10">
         <v>0.5</v>
       </c>
-      <c r="C122" s="4">
+      <c r="E122" s="4">
         <v>0.50347222222222221</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="15">
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15">
         <v>4</v>
       </c>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
       <c r="N122" s="15"/>
-      <c r="O122" s="15">
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15">
         <v>6</v>
       </c>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.5</v>
-      </c>
-      <c r="R122" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.503472222219</v>
-      </c>
+      <c r="R122" s="15"/>
     </row>
     <row r="123" spans="1:18" ht="37">
-      <c r="A123" s="5">
+      <c r="A123" s="12">
+        <f>C123+D123</f>
+        <v>42493.5625</v>
+      </c>
+      <c r="B123" s="12">
+        <f>C123+E123</f>
+        <v>42493.572916666664</v>
+      </c>
+      <c r="C123" s="5">
         <v>42493</v>
       </c>
-      <c r="B123" s="10">
+      <c r="D123" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C123" s="4">
+      <c r="E123" s="4">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15">
-        <v>5</v>
-      </c>
+      <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15">
+        <v>5</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15">
         <v>3</v>
       </c>
-      <c r="L123" s="15">
+      <c r="N123" s="15">
         <v>4</v>
       </c>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15">
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15">
         <v>5</v>
       </c>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.5625</v>
-      </c>
-      <c r="R123" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.572916666664</v>
-      </c>
+      <c r="R123" s="15"/>
     </row>
     <row r="124" spans="1:18" ht="25">
-      <c r="A124" s="5">
+      <c r="A124" s="12">
+        <f>C124+D124</f>
+        <v>42493.65625</v>
+      </c>
+      <c r="B124" s="12">
+        <f>C124+E124</f>
+        <v>42493.666666666664</v>
+      </c>
+      <c r="C124" s="5">
         <v>42493</v>
       </c>
-      <c r="B124" s="10">
+      <c r="D124" s="10">
         <v>0.65625</v>
       </c>
-      <c r="C124" s="4">
+      <c r="E124" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
       <c r="I124" s="15"/>
-      <c r="J124" s="15">
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15">
         <v>4</v>
       </c>
-      <c r="K124" s="15">
+      <c r="M124" s="15">
         <v>2</v>
       </c>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
       <c r="N124" s="15"/>
-      <c r="O124" s="15">
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15">
         <v>5</v>
       </c>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.65625</v>
-      </c>
-      <c r="R124" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.666666666664</v>
-      </c>
+      <c r="R124" s="15"/>
     </row>
     <row r="125" spans="1:18" ht="49">
-      <c r="A125" s="5">
+      <c r="A125" s="12">
+        <f>C125+D125</f>
+        <v>42493.6875</v>
+      </c>
+      <c r="B125" s="12">
+        <f>C125+E125</f>
+        <v>42493.729166666664</v>
+      </c>
+      <c r="C125" s="5">
         <v>42493</v>
       </c>
-      <c r="B125" s="10">
+      <c r="D125" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C125" s="4">
+      <c r="E125" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="15">
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15">
         <v>3</v>
       </c>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
       <c r="N125" s="15"/>
-      <c r="O125" s="15">
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15">
         <v>5</v>
       </c>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.6875</v>
-      </c>
-      <c r="R125" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.729166666664</v>
-      </c>
+      <c r="R125" s="15"/>
     </row>
     <row r="126" spans="1:18" ht="85">
-      <c r="A126" s="5">
+      <c r="A126" s="12">
+        <f>C126+D126</f>
+        <v>42493.770833333336</v>
+      </c>
+      <c r="B126" s="12">
+        <f>C126+E126</f>
+        <v>42493.777777777781</v>
+      </c>
+      <c r="C126" s="5">
         <v>42493</v>
       </c>
-      <c r="B126" s="10">
+      <c r="D126" s="10">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C126" s="4">
+      <c r="E126" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
-      <c r="K126" s="15">
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15">
         <v>4</v>
       </c>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
       <c r="N126" s="15"/>
-      <c r="O126" s="15">
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15">
         <v>5</v>
       </c>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.770833333336</v>
-      </c>
-      <c r="R126" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.777777777781</v>
-      </c>
+      <c r="R126" s="15"/>
     </row>
     <row r="127" spans="1:18">
-      <c r="A127" s="5">
+      <c r="A127" s="12">
+        <f>C127+D127</f>
+        <v>42493.319444444445</v>
+      </c>
+      <c r="B127" s="12">
+        <f>C127+E127</f>
+        <v>42493.833333333336</v>
+      </c>
+      <c r="C127" s="5">
         <v>42493</v>
       </c>
-      <c r="B127" s="10">
+      <c r="D127" s="10">
         <v>0.31944444444444442</v>
       </c>
-      <c r="C127" s="4">
+      <c r="E127" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
-      <c r="K127" s="15">
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15">
         <v>4</v>
       </c>
-      <c r="L127" s="15">
+      <c r="N127" s="15">
         <v>4</v>
       </c>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15">
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15">
         <v>5</v>
       </c>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.319444444445</v>
-      </c>
-      <c r="R127" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.833333333336</v>
-      </c>
+      <c r="R127" s="15"/>
     </row>
     <row r="128" spans="1:18" ht="49">
-      <c r="A128" s="5">
+      <c r="A128" s="12">
+        <f>C128+D128</f>
+        <v>42493.866666666669</v>
+      </c>
+      <c r="B128" s="12">
+        <f>C128+E128</f>
+        <v>42493.385416666664</v>
+      </c>
+      <c r="C128" s="5">
         <v>42493</v>
       </c>
-      <c r="B128" s="10">
+      <c r="D128" s="10">
         <v>0.8666666666666667</v>
       </c>
-      <c r="C128" s="4">
+      <c r="E128" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
       <c r="K128" s="15"/>
@@ -6531,14 +6555,8 @@
       <c r="N128" s="15"/>
       <c r="O128" s="15"/>
       <c r="P128" s="15"/>
-      <c r="Q128" s="12">
-        <f t="shared" si="2"/>
-        <v>42493.866666666669</v>
-      </c>
-      <c r="R128" s="12">
-        <f t="shared" si="3"/>
-        <v>42493.385416666664</v>
-      </c>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
